--- a/availability.xlsx
+++ b/availability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Life Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FB265E-51F0-4DF6-9F2F-094835FDDEB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F7CD4-2F41-45F7-9464-34F96E5ECBEE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>Mon</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Aa</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -186,7 +183,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="460">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -198,12 +195,41 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -219,12 +245,111 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -236,6 +361,1338 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -245,6 +1702,1418 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -252,37 +3121,1494 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFF4F7EF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -298,45 +4624,6 @@
     </dxf>
     <dxf>
       <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -357,40 +4644,71 @@
     </dxf>
     <dxf>
       <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -398,8 +4716,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF5E913B"/>
-      <color rgb="FF49732F"/>
       <color rgb="FFF4F7EF"/>
     </mruColors>
   </colors>
@@ -711,9 +5027,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -915,13 +5231,13 @@
         <v>-100</v>
       </c>
       <c r="R2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
         <v>-100</v>
       </c>
       <c r="T2" s="2">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V2" s="5">
         <v>0.33333333333333331</v>
@@ -1061,13 +5377,13 @@
         <v>-100</v>
       </c>
       <c r="R3" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
         <v>-100</v>
       </c>
       <c r="T3" s="2">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V3" s="5">
         <v>0.35416666666666669</v>
@@ -1207,13 +5523,13 @@
         <v>-100</v>
       </c>
       <c r="R4" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="S4" s="1">
         <v>-100</v>
       </c>
       <c r="T4" s="2">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V4" s="5">
         <v>0.375</v>
@@ -1359,7 +5675,7 @@
         <v>-100</v>
       </c>
       <c r="T5" s="2">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V5" s="5">
         <v>0.39583333333333298</v>
@@ -1466,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -1505,7 +5821,7 @@
         <v>-100</v>
       </c>
       <c r="T6" s="2">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V6" s="5">
         <v>0.41666666666666702</v>
@@ -1612,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -1651,7 +5967,7 @@
         <v>-100</v>
       </c>
       <c r="T7" s="2">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="V7" s="5">
         <v>0.4375</v>
@@ -1758,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -1895,19 +6211,19 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="C9" s="1">
         <v>-100</v>
       </c>
       <c r="D9" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="H9" s="5">
         <v>0.47916666666666702</v>
@@ -2050,7 +6366,7 @@
         <v>-100</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>-100</v>
@@ -2196,7 +6512,7 @@
         <v>-100</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>-100</v>
@@ -2342,7 +6658,7 @@
         <v>-100</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>-100</v>
@@ -2488,7 +6804,7 @@
         <v>-100</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <v>-100</v>
@@ -2774,13 +7090,13 @@
         <v>-100</v>
       </c>
       <c r="C15" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="D15" s="1">
         <v>-100</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>-100</v>
@@ -2813,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1">
         <v>-100</v>
@@ -2926,7 +7242,7 @@
         <v>-100</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2">
         <v>-100</v>
@@ -3066,13 +7382,13 @@
         <v>-100</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
         <v>-100</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>-100</v>
@@ -3093,7 +7409,7 @@
         <v>-99</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="5">
         <v>0.64583333333333404</v>
@@ -3209,37 +7525,37 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
-        <v>-99</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
       <c r="F18" s="2">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1">
         <v>5</v>
       </c>
       <c r="K18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O18" s="5">
         <v>0.66666666666666696</v>
@@ -3358,34 +7674,34 @@
         <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="F19" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="H19" s="5">
         <v>0.6875</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" s="2">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="O19" s="5">
         <v>0.6875</v>
@@ -3504,7 +7820,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -3513,25 +7829,25 @@
         <v>-100</v>
       </c>
       <c r="F20" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="5">
         <v>0.70833333333333404</v>
       </c>
       <c r="I20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2">
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="O20" s="5">
         <v>0.70833333333333404</v>
@@ -3546,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="T20" s="2">
         <v>1</v>
@@ -3650,7 +7966,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -3659,25 +7975,25 @@
         <v>-100</v>
       </c>
       <c r="F21" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5">
         <v>0.72916666666666696</v>
       </c>
       <c r="I21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="O21" s="5">
         <v>0.72916666666666696</v>
@@ -3686,16 +8002,16 @@
         <v>-100</v>
       </c>
       <c r="Q21" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="T21" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="5">
         <v>0.72916666666666696</v>
@@ -3796,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -3805,25 +8121,25 @@
         <v>-100</v>
       </c>
       <c r="F22" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="5">
         <v>0.75</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="5">
         <v>0.75</v>
@@ -3832,16 +8148,16 @@
         <v>-100</v>
       </c>
       <c r="Q22" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="T22" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="5">
         <v>0.75</v>
@@ -3942,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3951,25 +8267,25 @@
         <v>-100</v>
       </c>
       <c r="F23" s="2">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5">
         <v>0.77083333333333404</v>
       </c>
       <c r="I23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="5">
         <v>0.77083333333333404</v>
@@ -3978,16 +8294,16 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="T23" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="5">
         <v>0.77083333333333404</v>
@@ -4097,25 +8413,25 @@
         <v>-100</v>
       </c>
       <c r="F24" s="4">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
         <v>0.79166666666666696</v>
       </c>
       <c r="I24" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="5">
         <v>0.79166666666666696</v>
@@ -4124,16 +8440,16 @@
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="T24" s="4">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="5">
         <v>0.79166666666666696</v>
@@ -4226,62 +8542,28 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T27" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:XFD1048576 G1:XFD24">
-    <cfRule type="cellIs" dxfId="23" priority="51" operator="equal">
-      <formula>1</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="137" operator="equal">
+      <formula>-100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="136" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="54" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="55" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="152" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="153" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4290,7 +8572,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{FE65B820-67A6-4FF8-87D1-482B072706B5}">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{FE65B820-67A6-4FF8-87D1-482B072706B5}">
             <xm:f>NOT(ISERROR(SEARCH(-5,A1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4304,24 +8586,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A25:XFD1048576 G1:XFD24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{628AF472-1BE5-422F-A21A-F95FC05CB70C}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,A1)))</xm:f>
-            <xm:f>-5</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="5" tint="-0.24994659260841701"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A1:F24</xm:sqref>
+          <xm:sqref>A1:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/availability.xlsx
+++ b/availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Life Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452BBE9-00CB-4669-9E2A-CBE0612539AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B9B80-42B9-4336-A7B4-CD5451A5DAFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
@@ -186,7 +186,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -1058,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5">
         <v>0.33333333333333331</v>
@@ -1242,7 +1311,7 @@
         <v>-100</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1">
         <v>-100</v>
@@ -1260,7 +1329,7 @@
         <v>-100</v>
       </c>
       <c r="R2" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="S2" s="1">
         <v>-100</v>
@@ -1272,19 +1341,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="W2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="5">
         <v>0.33333333333333331</v>
@@ -1311,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
         <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1376,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="5">
         <v>0.35416666666666669</v>
@@ -1388,7 +1457,7 @@
         <v>-100</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
         <v>-100</v>
@@ -1406,7 +1475,7 @@
         <v>-100</v>
       </c>
       <c r="R3" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1">
         <v>-100</v>
@@ -1418,19 +1487,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="W3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="5">
         <v>0.35416666666666669</v>
@@ -1457,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
         <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1522,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5">
         <v>0.375</v>
@@ -1534,7 +1603,7 @@
         <v>-100</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
         <v>-100</v>
@@ -1552,7 +1621,7 @@
         <v>-100</v>
       </c>
       <c r="R4" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1">
         <v>-100</v>
@@ -1564,19 +1633,19 @@
         <v>0.375</v>
       </c>
       <c r="W4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="5">
         <v>0.375</v>
@@ -1603,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="AL4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
         <v>1</v>
@@ -1680,7 +1749,7 @@
         <v>-99</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1">
         <v>-99</v>
@@ -1698,7 +1767,7 @@
         <v>-100</v>
       </c>
       <c r="R5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1">
         <v>-100</v>
@@ -1710,19 +1779,19 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="W5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="5">
         <v>0.39583333333333298</v>
@@ -1749,13 +1818,13 @@
         <v>2</v>
       </c>
       <c r="AL5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
         <v>2</v>
       </c>
       <c r="AN5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="2">
         <v>2</v>
@@ -1814,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="5">
         <v>0.41666666666666702</v>
@@ -1826,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -1844,7 +1913,7 @@
         <v>-100</v>
       </c>
       <c r="R6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
         <v>-100</v>
@@ -1856,19 +1925,19 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="W6" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="5">
         <v>0.41666666666666702</v>
@@ -1895,13 +1964,13 @@
         <v>3</v>
       </c>
       <c r="AL6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
         <v>3</v>
       </c>
       <c r="AN6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="2">
         <v>3</v>
@@ -1960,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <v>0.4375</v>
@@ -1990,7 +2059,7 @@
         <v>-100</v>
       </c>
       <c r="R7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>-100</v>
@@ -2014,7 +2083,7 @@
         <v>-99</v>
       </c>
       <c r="AA7" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="5">
         <v>0.4375</v>
@@ -2106,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <v>0.45833333333333298</v>
@@ -2118,7 +2187,7 @@
         <v>-100</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>-100</v>
@@ -2142,7 +2211,7 @@
         <v>-100</v>
       </c>
       <c r="T8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" s="5">
         <v>0.45833333333333298</v>
@@ -2160,7 +2229,7 @@
         <v>-100</v>
       </c>
       <c r="AA8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="5">
         <v>0.45833333333333298</v>
@@ -2264,7 +2333,7 @@
         <v>-100</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <v>-100</v>
@@ -2410,7 +2479,7 @@
         <v>-100</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>-100</v>
@@ -2434,7 +2503,7 @@
         <v>-100</v>
       </c>
       <c r="T10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" s="5">
         <v>0.5</v>
@@ -2452,7 +2521,7 @@
         <v>-100</v>
       </c>
       <c r="AA10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="5">
         <v>0.5</v>
@@ -2556,7 +2625,7 @@
         <v>-99</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>-99</v>
@@ -2702,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -2896,7 +2965,7 @@
         <v>0.5625</v>
       </c>
       <c r="AD13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
@@ -2905,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="2">
         <v>-99</v>
@@ -3042,7 +3111,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="AD14" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
@@ -3051,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="2">
         <v>0</v>
@@ -3158,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15" s="1">
         <v>-100</v>
@@ -3197,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="2">
         <v>0</v>
@@ -3265,7 +3334,7 @@
         <v>-100</v>
       </c>
       <c r="C16" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>-100</v>
@@ -3334,7 +3403,7 @@
         <v>0.625</v>
       </c>
       <c r="AD16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE16" s="1">
         <v>5</v>
@@ -3343,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="2">
         <v>0</v>
@@ -3411,7 +3480,7 @@
         <v>-100</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>-100</v>
@@ -3426,7 +3495,7 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="I17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>-99</v>
@@ -3462,7 +3531,7 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="W17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X17" s="1">
         <v>-99</v>
@@ -3480,10 +3549,10 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="AD17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="1">
         <v>0</v>
@@ -3557,7 +3626,7 @@
         <v>-99</v>
       </c>
       <c r="C18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
         <v>-99</v>
@@ -3572,13 +3641,13 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1">
         <v>5</v>
       </c>
       <c r="K18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
@@ -3608,7 +3677,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="W18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X18" s="1">
         <v>5</v>
@@ -3626,10 +3695,10 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="AD18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="1">
         <v>0</v>
@@ -3718,16 +3787,16 @@
         <v>0.6875</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" s="2">
         <v>-100</v>
@@ -3754,7 +3823,7 @@
         <v>0.6875</v>
       </c>
       <c r="W19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X19" s="1">
         <v>4</v>
@@ -3772,10 +3841,10 @@
         <v>0.6875</v>
       </c>
       <c r="AD19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="1">
         <v>0</v>
@@ -3793,7 +3862,7 @@
         <v>5</v>
       </c>
       <c r="AL19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="1">
         <v>0</v>
@@ -3864,16 +3933,16 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="I20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" s="2">
         <v>-100</v>
@@ -3918,10 +3987,10 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="AD20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="1">
         <v>0</v>
@@ -3930,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="5">
         <v>0.70833333333333404</v>
@@ -3939,7 +4008,7 @@
         <v>4</v>
       </c>
       <c r="AL20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -4046,7 +4115,7 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="W21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X21" s="1">
         <v>2</v>
@@ -4064,10 +4133,10 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="AD21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
         <v>0</v>
@@ -4076,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" s="5">
         <v>0.72916666666666696</v>
@@ -4085,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="AL21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="1">
         <v>0</v>
@@ -4156,7 +4225,7 @@
         <v>0.75</v>
       </c>
       <c r="I22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -4192,7 +4261,7 @@
         <v>0.75</v>
       </c>
       <c r="W22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X22" s="1">
         <v>1</v>
@@ -4210,10 +4279,10 @@
         <v>0.75</v>
       </c>
       <c r="AD22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
         <v>0</v>
@@ -4222,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="AH22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ22" s="5">
         <v>0.75</v>
@@ -4231,7 +4300,7 @@
         <v>2</v>
       </c>
       <c r="AL22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4302,7 +4371,7 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="I23" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -4338,7 +4407,7 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="W23" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
@@ -4356,10 +4425,10 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="AD23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
         <v>-5</v>
@@ -4368,7 +4437,7 @@
         <v>-5</v>
       </c>
       <c r="AH23" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="AJ23" s="5">
         <v>0.77083333333333404</v>
@@ -4377,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="AL23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM23" s="1">
         <v>0</v>
@@ -4448,7 +4517,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="I24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -4484,7 +4553,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="W24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -4502,10 +4571,10 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="AD24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="3">
         <v>-5</v>
@@ -4514,7 +4583,7 @@
         <v>-5</v>
       </c>
       <c r="AH24" s="4">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="AJ24" s="5">
         <v>0.79166666666666696</v>
@@ -4523,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM24" s="3">
         <v>0</v>
@@ -4592,187 +4661,187 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:XFD1048576 G1:N24 U1:U24 AB1:AB24 AI1:XFD24">
-    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
+  <conditionalFormatting sqref="A25:XFD1048576 U1:U24 AB1:AB24 AI1:XFD24 G1:N24">
+    <cfRule type="cellIs" dxfId="71" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="108" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="109" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="110" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="111" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="208" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="209" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24">
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:Z6">
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+  <conditionalFormatting sqref="W2:AA6">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA7">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA24">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4782,7 +4851,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{FE65B820-67A6-4FF8-87D1-482B072706B5}">
+          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{FE65B820-67A6-4FF8-87D1-482B072706B5}">
             <xm:f>NOT(ISERROR(SEARCH(-5,A1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4796,10 +4865,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A25:XFD1048576 G1:N24 U1:U24 AB1:AB24 AI1:XFD24</xm:sqref>
+          <xm:sqref>A25:XFD1048576 U1:U24 AB1:AB24 AI1:XFD24 G1:N24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{5AEB64F3-081F-4DF8-BB95-AE5E0CC64F79}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{5AEB64F3-081F-4DF8-BB95-AE5E0CC64F79}">
             <xm:f>NOT(ISERROR(SEARCH(-5,A1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4816,7 +4885,7 @@
           <xm:sqref>A1:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{9C988215-61F1-4CAD-8003-ED597D45813D}">
+          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{9C988215-61F1-4CAD-8003-ED597D45813D}">
             <xm:f>NOT(ISERROR(SEARCH(-5,O1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4833,7 +4902,7 @@
           <xm:sqref>O1:T24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{98B34D08-8BF6-4894-A9CA-3E0D57CA1103}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{98B34D08-8BF6-4894-A9CA-3E0D57CA1103}">
             <xm:f>NOT(ISERROR(SEARCH(-5,V1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4850,7 +4919,7 @@
           <xm:sqref>V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{E147DA2D-ACE5-47A4-8421-F6F7A823AD8F}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{E147DA2D-ACE5-47A4-8421-F6F7A823AD8F}">
             <xm:f>NOT(ISERROR(SEARCH(-5,AC1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4867,7 +4936,7 @@
           <xm:sqref>AC1:AH24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{D33E7692-5BD1-4288-8D52-AA683F6CA264}">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{D33E7692-5BD1-4288-8D52-AA683F6CA264}">
             <xm:f>NOT(ISERROR(SEARCH(-5,W2)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4881,27 +4950,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W2:Z6</xm:sqref>
+          <xm:sqref>W2:AA6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{5AC2092B-E48B-4584-9241-99EBC824D409}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,AA2)))</xm:f>
-            <xm:f>-5</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="5" tint="-0.24994659260841701"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>AA2:AA7</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{08F50A8E-4C65-4990-9515-037D07F60F25}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{08F50A8E-4C65-4990-9515-037D07F60F25}">
             <xm:f>NOT(ISERROR(SEARCH(-5,AA17)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4917,6 +4969,23 @@
           </x14:cfRule>
           <xm:sqref>AA17:AA24</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{993DE8D1-17A9-4790-81D7-170B68296247}">
+            <xm:f>NOT(ISERROR(SEARCH(-5,AA7)))</xm:f>
+            <xm:f>-5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>AA7</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/availability.xlsx
+++ b/availability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Life Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B9B80-42B9-4336-A7B4-CD5451A5DAFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B2FD7-EBC2-484D-B2E3-1A6E115D561F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="22">
   <si>
     <t>Mon</t>
   </si>
@@ -72,7 +72,31 @@
     <t>Aa</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t># staff</t>
+  </si>
+  <si>
+    <t>Highly preferred</t>
+  </si>
+  <si>
+    <t>Slightly preferred</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Unpreferred</t>
+  </si>
+  <si>
+    <t>Travel time</t>
+  </si>
+  <si>
+    <t>Cannot work (unavailable)</t>
   </si>
 </sst>
 </file>
@@ -186,76 +210,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -1125,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4640,208 +4595,306 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" t="s">
-        <v>13</v>
-      </c>
-      <c r="T27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>13</v>
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:XFD1048576 U1:U24 AB1:AB24 AI1:XFD24 G1:N24">
-    <cfRule type="cellIs" dxfId="71" priority="107" operator="equal">
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:XFD24 G1:N24 A25:XFD1048576">
+    <cfRule type="cellIs" dxfId="63" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="108" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="109" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="110" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="111" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="208" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="209" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24">
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AA6">
-    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA24">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4865,7 +4918,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A25:XFD1048576 U1:U24 AB1:AB24 AI1:XFD24 G1:N24</xm:sqref>
+          <xm:sqref>U1:U24 AB1:AB24 AI1:XFD24 G1:N24 A25:XFD1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="57" operator="containsText" id="{5AEB64F3-081F-4DF8-BB95-AE5E0CC64F79}">

--- a/availability.xlsx
+++ b/availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B2FD7-EBC2-484D-B2E3-1A6E115D561F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681C0C2-17F5-417F-AB4E-1852041CD933}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>Mon</t>
   </si>
@@ -98,6 +98,15 @@
   <si>
     <t>Cannot work (unavailable)</t>
   </si>
+  <si>
+    <t>Xx</t>
+  </si>
+  <si>
+    <t>With Xx placeholder</t>
+  </si>
+  <si>
+    <t>Xx placeholder</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +130,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -206,81 +221,18 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="240">
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -347,6 +299,1594 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1080,10 +2620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
-  <dimension ref="A1:BC35"/>
+  <dimension ref="A1:BQ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,9 +2631,9 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1111,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>0</v>
@@ -1236,43 +2776,79 @@
       <c r="BC1" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="BE1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
+      <c r="B2" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-50</v>
       </c>
       <c r="H2" s="5">
         <v>0.33333333333333331</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J2" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="K2" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="L2" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O2" s="5">
         <v>0.33333333333333331</v>
@@ -1382,43 +2958,79 @@
       <c r="BC2" s="2">
         <v>-5</v>
       </c>
+      <c r="BE2" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>5</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
+      <c r="B3" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-50</v>
       </c>
       <c r="H3" s="5">
         <v>0.35416666666666669</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J3" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="K3" s="1">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="L3" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O3" s="5">
         <v>0.35416666666666669</v>
@@ -1528,43 +3140,79 @@
       <c r="BC3" s="2">
         <v>-5</v>
       </c>
+      <c r="BE3" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.375</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
+      <c r="B4" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F4" s="10">
+        <v>-50</v>
       </c>
       <c r="H4" s="5">
         <v>0.375</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J4" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="K4" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="L4" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O4" s="5">
         <v>0.375</v>
@@ -1674,43 +3322,79 @@
       <c r="BC4" s="2">
         <v>-5</v>
       </c>
+      <c r="BE4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
+      <c r="B5" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-50</v>
       </c>
       <c r="H5" s="5">
         <v>0.39583333333333298</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J5" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="L5" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O5" s="5">
         <v>0.39583333333333298</v>
@@ -1820,43 +3504,79 @@
       <c r="BC5" s="2">
         <v>-5</v>
       </c>
+      <c r="BE5" s="5">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+      <c r="B6" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-50</v>
       </c>
       <c r="H6" s="5">
         <v>0.41666666666666702</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O6" s="5">
         <v>0.41666666666666702</v>
@@ -1966,43 +3686,79 @@
       <c r="BC6" s="2">
         <v>-5</v>
       </c>
+      <c r="BE6" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="B7" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-50</v>
       </c>
       <c r="H7" s="5">
         <v>0.4375</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J7" s="1">
         <v>-99</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="5">
         <v>0.4375</v>
@@ -2112,43 +3868,79 @@
       <c r="BC7" s="2">
         <v>-5</v>
       </c>
+      <c r="BE7" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
+      <c r="B8" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-50</v>
       </c>
       <c r="H8" s="5">
         <v>0.45833333333333298</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="J8" s="1">
         <v>-100</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L8" s="1">
         <v>-100</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="O8" s="5">
         <v>0.45833333333333298</v>
@@ -2258,43 +4050,79 @@
       <c r="BC8" s="2">
         <v>-5</v>
       </c>
+      <c r="BE8" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="1">
-        <v>-99</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-99</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-99</v>
+      <c r="B9" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F9" s="10">
+        <v>-50</v>
       </c>
       <c r="H9" s="5">
         <v>0.47916666666666702</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J9" s="1">
         <v>-100</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L9" s="1">
         <v>-100</v>
       </c>
       <c r="M9" s="2">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="O9" s="5">
         <v>0.47916666666666702</v>
@@ -2404,43 +4232,79 @@
       <c r="BC9" s="2">
         <v>-5</v>
       </c>
+      <c r="BE9" s="5">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>-99</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0.5</v>
       </c>
-      <c r="B10" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-100</v>
+      <c r="B10" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D10" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-50</v>
       </c>
       <c r="H10" s="5">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="J10" s="1">
         <v>-100</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L10" s="1">
         <v>-100</v>
       </c>
       <c r="M10" s="2">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="O10" s="5">
         <v>0.5</v>
@@ -2550,43 +4414,79 @@
       <c r="BC10" s="2">
         <v>-5</v>
       </c>
+      <c r="BE10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B11" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-100</v>
+      <c r="B11" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-50</v>
       </c>
       <c r="H11" s="5">
         <v>0.52083333333333304</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="J11" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L11" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="M11" s="2">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="O11" s="5">
         <v>0.52083333333333304</v>
@@ -2696,43 +4596,79 @@
       <c r="BC11" s="2">
         <v>-5</v>
       </c>
+      <c r="BE11" s="5">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B12" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-100</v>
+      <c r="B12" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-50</v>
       </c>
       <c r="H12" s="5">
         <v>0.54166666666666696</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M12" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="O12" s="5">
         <v>0.54166666666666696</v>
@@ -2842,43 +4778,79 @@
       <c r="BC12" s="2">
         <v>-5</v>
       </c>
+      <c r="BE12" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL12" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>5</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B13" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-100</v>
+      <c r="B13" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-50</v>
       </c>
       <c r="H13" s="5">
         <v>0.5625</v>
       </c>
       <c r="I13" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="J13" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="K13" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="L13" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="M13" s="2">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="O13" s="5">
         <v>0.5625</v>
@@ -2988,43 +4960,79 @@
       <c r="BC13" s="2">
         <v>-5</v>
       </c>
+      <c r="BE13" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL13" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>-99</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-100</v>
+      <c r="B14" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D14" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E14" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F14" s="10">
+        <v>-50</v>
       </c>
       <c r="H14" s="5">
         <v>0.58333333333333304</v>
       </c>
       <c r="I14" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="J14" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="K14" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="L14" s="1">
         <v>-100</v>
       </c>
       <c r="M14" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O14" s="5">
         <v>0.58333333333333304</v>
@@ -3134,43 +5142,79 @@
       <c r="BC14" s="2">
         <v>-5</v>
       </c>
+      <c r="BE14" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL14" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-99</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-100</v>
+      <c r="B15" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D15" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E15" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F15" s="10">
+        <v>-50</v>
       </c>
       <c r="H15" s="5">
         <v>0.60416666666666696</v>
       </c>
       <c r="I15" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="J15" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="K15" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="L15" s="1">
         <v>-100</v>
       </c>
       <c r="M15" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O15" s="5">
         <v>0.60416666666666696</v>
@@ -3280,43 +5324,79 @@
       <c r="BC15" s="2">
         <v>-5</v>
       </c>
+      <c r="BE15" s="5">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL15" s="5">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>0.625</v>
       </c>
-      <c r="B16" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-100</v>
+      <c r="B16" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C16" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F16" s="10">
+        <v>-50</v>
       </c>
       <c r="H16" s="5">
         <v>0.625</v>
       </c>
       <c r="I16" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="J16" s="1">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="K16" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="L16" s="1">
         <v>-100</v>
       </c>
       <c r="M16" s="2">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="O16" s="5">
         <v>0.625</v>
@@ -3426,43 +5506,79 @@
       <c r="BC16" s="2">
         <v>-5</v>
       </c>
+      <c r="BE16" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL16" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>-99</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>0.64583333333333404</v>
       </c>
-      <c r="B17" s="1">
-        <v>-100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-100</v>
+      <c r="B17" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C17" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-50</v>
       </c>
       <c r="H17" s="5">
         <v>0.64583333333333404</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="J17" s="1">
-        <v>-99</v>
+        <v>-5</v>
       </c>
       <c r="K17" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="L17" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O17" s="5">
         <v>0.64583333333333404</v>
@@ -3572,43 +5688,79 @@
       <c r="BC17" s="2">
         <v>-5</v>
       </c>
+      <c r="BE17" s="5">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>-100</v>
+      </c>
+      <c r="BL17" s="5">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B18" s="1">
-        <v>-99</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-99</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-99</v>
+      <c r="B18" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-50</v>
       </c>
       <c r="H18" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="K18" s="1">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="L18" s="1">
-        <v>5</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O18" s="5">
         <v>0.66666666666666696</v>
@@ -3718,43 +5870,79 @@
       <c r="BC18" s="2">
         <v>-5</v>
       </c>
+      <c r="BE18" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>-99</v>
+      </c>
+      <c r="BL18" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>5</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-99</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-5</v>
+      <c r="B19" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E19" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-50</v>
       </c>
       <c r="H19" s="5">
         <v>0.6875</v>
       </c>
       <c r="I19" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="J19" s="1">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="L19" s="1">
-        <v>4</v>
+        <v>-100</v>
       </c>
       <c r="M19" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O19" s="5">
         <v>0.6875</v>
@@ -3864,43 +6052,79 @@
       <c r="BC19" s="2">
         <v>-5</v>
       </c>
+      <c r="BE19" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>5</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>5</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>5</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>-99</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>-5</v>
+      </c>
+      <c r="BL19" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>-100</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-5</v>
+      <c r="B20" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F20" s="10">
+        <v>-50</v>
       </c>
       <c r="H20" s="5">
         <v>0.70833333333333404</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="J20" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
+        <v>-99</v>
       </c>
       <c r="L20" s="1">
-        <v>3</v>
+        <v>-99</v>
       </c>
       <c r="M20" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O20" s="5">
         <v>0.70833333333333404</v>
@@ -4010,43 +6234,79 @@
       <c r="BC20" s="2">
         <v>-5</v>
       </c>
+      <c r="BE20" s="5">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="BF20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BH20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>-5</v>
+      </c>
+      <c r="BL20" s="5">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BO20" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ20" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-5</v>
+      <c r="B21" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E21" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F21" s="10">
+        <v>-50</v>
       </c>
       <c r="H21" s="5">
         <v>0.72916666666666696</v>
       </c>
       <c r="I21" s="1">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K21" s="1">
         <v>-100</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M21" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O21" s="5">
         <v>0.72916666666666696</v>
@@ -4156,43 +6416,79 @@
       <c r="BC21" s="2">
         <v>-5</v>
       </c>
+      <c r="BE21" s="5">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>3</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>-5</v>
+      </c>
+      <c r="BL21" s="5">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>5</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>0.75</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-5</v>
+      <c r="B22" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C22" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E22" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-50</v>
       </c>
       <c r="H22" s="5">
         <v>0.75</v>
       </c>
       <c r="I22" s="1">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K22" s="1">
         <v>-100</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M22" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O22" s="5">
         <v>0.75</v>
@@ -4302,43 +6598,79 @@
       <c r="BC22" s="2">
         <v>-5</v>
       </c>
+      <c r="BE22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="BF22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH22" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>-5</v>
+      </c>
+      <c r="BL22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>4</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>0.77083333333333404</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-5</v>
+      <c r="B23" s="9">
+        <v>-50</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-50</v>
+      </c>
+      <c r="D23" s="9">
+        <v>-50</v>
+      </c>
+      <c r="E23" s="9">
+        <v>-50</v>
+      </c>
+      <c r="F23" s="10">
+        <v>-50</v>
       </c>
       <c r="H23" s="5">
         <v>0.77083333333333404</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K23" s="1">
         <v>-100</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M23" s="2">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O23" s="5">
         <v>0.77083333333333404</v>
@@ -4448,43 +6780,79 @@
       <c r="BC23" s="2">
         <v>-5</v>
       </c>
+      <c r="BE23" s="5">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="BF23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>-5</v>
+      </c>
+      <c r="BL23" s="5">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>3</v>
+      </c>
+      <c r="BN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="1">
+        <v>-100</v>
+      </c>
+      <c r="BP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="2">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F24" s="4">
-        <v>-5</v>
+      <c r="B24" s="11">
+        <v>-50</v>
+      </c>
+      <c r="C24" s="11">
+        <v>-50</v>
+      </c>
+      <c r="D24" s="11">
+        <v>-50</v>
+      </c>
+      <c r="E24" s="11">
+        <v>-50</v>
+      </c>
+      <c r="F24" s="12">
+        <v>-50</v>
       </c>
       <c r="H24" s="5">
         <v>0.79166666666666696</v>
       </c>
       <c r="I24" s="3">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M24" s="4">
-        <v>-100</v>
+        <v>-5</v>
       </c>
       <c r="O24" s="5">
         <v>0.79166666666666696</v>
@@ -4594,308 +6962,417 @@
       <c r="BC24" s="4">
         <v>-5</v>
       </c>
+      <c r="BE24" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="BF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="BJ24" s="4">
+        <v>-5</v>
+      </c>
+      <c r="BL24" s="5">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="BM24" s="3">
+        <v>2</v>
+      </c>
+      <c r="BN24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="4">
+        <v>-100</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="8"/>
+      <c r="C27" s="1">
         <v>8</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1">
+        <f>C27 + 1</f>
+        <v>9</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
         <v>-99</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <v>-100</v>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-50</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:XFD24 G1:N24 A25:XFD1048576">
-    <cfRule type="cellIs" dxfId="63" priority="107" operator="equal">
+  <mergeCells count="2">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:BD24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
+    <cfRule type="cellIs" dxfId="159" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="140" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="141" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="142" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="240" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="241" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24">
+    <cfRule type="cellIs" dxfId="152" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="75" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="76" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="77" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="78" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="79" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="80" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:T24">
+    <cfRule type="cellIs" dxfId="145" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="83" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="84" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="85" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="86" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="87" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="88" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC1:AH24">
+    <cfRule type="cellIs" dxfId="138" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="69" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="70" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="71" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="72" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AA6">
+    <cfRule type="cellIs" dxfId="131" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="59" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="62" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="63" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="64" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA17:AA24">
+    <cfRule type="cellIs" dxfId="124" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="45" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="46" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="47" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="48" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="cellIs" dxfId="117" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="37" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="38" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="39" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="40" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:BD24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
+    <cfRule type="cellIs" dxfId="110" priority="105" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK1:BQ24">
+    <cfRule type="cellIs" dxfId="103" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="30" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="31" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="32" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE1:BJ24">
+    <cfRule type="cellIs" dxfId="96" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="22" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="24" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="40" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:AA6">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA17:AA24">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>-100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
-      <formula>-99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>-100</formula>
+  <conditionalFormatting sqref="A1:F24">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+      <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4904,8 +7381,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{FE65B820-67A6-4FF8-87D1-482B072706B5}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,A1)))</xm:f>
+          <x14:cfRule type="containsText" priority="73" operator="containsText" id="{5AEB64F3-081F-4DF8-BB95-AE5E0CC64F79}">
+            <xm:f>NOT(ISERROR(SEARCH(-5,V1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
               <font>
@@ -4918,27 +7395,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>U1:U24 AB1:AB24 AI1:XFD24 G1:N24 A25:XFD1048576</xm:sqref>
+          <xm:sqref>V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{5AEB64F3-081F-4DF8-BB95-AE5E0CC64F79}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,A1)))</xm:f>
-            <xm:f>-5</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="5" tint="-0.24994659260841701"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A1:F24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="49" operator="containsText" id="{9C988215-61F1-4CAD-8003-ED597D45813D}">
+          <x14:cfRule type="containsText" priority="81" operator="containsText" id="{9C988215-61F1-4CAD-8003-ED597D45813D}">
             <xm:f>NOT(ISERROR(SEARCH(-5,O1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4955,24 +7415,7 @@
           <xm:sqref>O1:T24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{98B34D08-8BF6-4894-A9CA-3E0D57CA1103}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,V1)))</xm:f>
-            <xm:f>-5</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="5" tint="-0.24994659260841701"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="5" tint="0.79998168889431442"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{E147DA2D-ACE5-47A4-8421-F6F7A823AD8F}">
+          <x14:cfRule type="containsText" priority="65" operator="containsText" id="{E147DA2D-ACE5-47A4-8421-F6F7A823AD8F}">
             <xm:f>NOT(ISERROR(SEARCH(-5,AC1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -4989,7 +7432,7 @@
           <xm:sqref>AC1:AH24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{D33E7692-5BD1-4288-8D52-AA683F6CA264}">
+          <x14:cfRule type="containsText" priority="57" operator="containsText" id="{D33E7692-5BD1-4288-8D52-AA683F6CA264}">
             <xm:f>NOT(ISERROR(SEARCH(-5,W2)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -5006,7 +7449,7 @@
           <xm:sqref>W2:AA6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{08F50A8E-4C65-4990-9515-037D07F60F25}">
+          <x14:cfRule type="containsText" priority="41" operator="containsText" id="{08F50A8E-4C65-4990-9515-037D07F60F25}">
             <xm:f>NOT(ISERROR(SEARCH(-5,AA17)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -5023,7 +7466,7 @@
           <xm:sqref>AA17:AA24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{993DE8D1-17A9-4790-81D7-170B68296247}">
+          <x14:cfRule type="containsText" priority="33" operator="containsText" id="{993DE8D1-17A9-4790-81D7-170B68296247}">
             <xm:f>NOT(ISERROR(SEARCH(-5,AA7)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -5039,6 +7482,40 @@
           </x14:cfRule>
           <xm:sqref>AA7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="25" operator="containsText" id="{DC4F45F0-A295-4ED3-97E0-2C38404DEA26}">
+            <xm:f>NOT(ISERROR(SEARCH(-5,BK1)))</xm:f>
+            <xm:f>-5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BK1:BQ24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{64681BE5-62F0-4BE2-B713-DF3D34ECA7EB}">
+            <xm:f>NOT(ISERROR(SEARCH(-5,BE1)))</xm:f>
+            <xm:f>-5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="5" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>BE1:BJ24</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/availability.xlsx
+++ b/availability.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6681C0C2-17F5-417F-AB4E-1852041CD933}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32823DE2-3594-499A-9A09-73F67BC511BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Mon</t>
   </si>
@@ -221,18 +221,98 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="240">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -304,26 +384,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -437,1446 +497,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2620,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
-  <dimension ref="A1:BQ36"/>
+  <dimension ref="A1:BJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2631,7 +1251,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -2759,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="AX1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY1" s="6" t="s">
         <v>0</v>
@@ -2777,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="BE1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF1" s="6" t="s">
         <v>0</v>
@@ -2794,42 +1414,24 @@
       <c r="BJ1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C2" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D2" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E2" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="B2" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D2" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F2" s="9">
         <v>-50</v>
       </c>
       <c r="H2" s="5">
@@ -2944,19 +1546,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AY2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BA2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="BE2" s="5">
         <v>0.33333333333333331</v>
@@ -2968,50 +1570,32 @@
         <v>-100</v>
       </c>
       <c r="BH2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI2" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="BJ2" s="2">
-        <v>5</v>
-      </c>
-      <c r="BL2" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C3" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D3" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E3" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="B3" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F3" s="9">
         <v>-50</v>
       </c>
       <c r="H3" s="5">
@@ -3126,19 +1710,19 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="AY3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BA3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="BE3" s="5">
         <v>0.35416666666666669</v>
@@ -3150,50 +1734,32 @@
         <v>-100</v>
       </c>
       <c r="BH3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI3" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="BJ3" s="2">
-        <v>4</v>
-      </c>
-      <c r="BL3" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>4</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.375</v>
       </c>
-      <c r="B4" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C4" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D4" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E4" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="B4" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D4" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F4" s="9">
         <v>-50</v>
       </c>
       <c r="H4" s="5">
@@ -3308,74 +1874,56 @@
         <v>0.375</v>
       </c>
       <c r="AY4" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BA4" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="BE4" s="5">
         <v>0.375</v>
       </c>
       <c r="BF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="1">
         <v>-100</v>
       </c>
       <c r="BH4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI4" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="BJ4" s="2">
-        <v>3</v>
-      </c>
-      <c r="BL4" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>3</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B5" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D5" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E5" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="B5" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F5" s="9">
         <v>-50</v>
       </c>
       <c r="H5" s="5">
@@ -3490,74 +2038,56 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="AY5" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="AZ5" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BA5" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="BB5" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="BE5" s="5">
         <v>0.39583333333333298</v>
       </c>
       <c r="BF5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BH5" s="1">
         <v>2</v>
       </c>
       <c r="BI5" s="1">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="BJ5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL5" s="5">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BQ5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B6" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E6" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="B6" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F6" s="9">
         <v>-50</v>
       </c>
       <c r="H6" s="5">
@@ -3672,74 +2202,56 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="AY6" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="AZ6" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BA6" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="BB6" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="5">
         <v>0.41666666666666702</v>
       </c>
       <c r="BF6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="5">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="BM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B7" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D7" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="B7" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D7" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F7" s="9">
         <v>-50</v>
       </c>
       <c r="H7" s="5">
@@ -3854,74 +2366,56 @@
         <v>0.4375</v>
       </c>
       <c r="AY7" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="AZ7" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BA7" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="BB7" s="1">
-        <v>-99</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="5">
         <v>0.4375</v>
       </c>
       <c r="BF7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BH7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="2">
         <v>0</v>
       </c>
-      <c r="BL7" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B8" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D8" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="B8" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F8" s="9">
         <v>-50</v>
       </c>
       <c r="H8" s="5">
@@ -4036,74 +2530,56 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="AY8" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="AZ8" s="1">
         <v>-100</v>
       </c>
       <c r="BA8" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="BB8" s="1">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="5">
         <v>0.45833333333333298</v>
       </c>
       <c r="BF8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="1">
         <v>-100</v>
       </c>
       <c r="BH8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>3</v>
+        <v>-100</v>
       </c>
       <c r="BJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="5">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="BM8" s="1">
         <v>1</v>
       </c>
-      <c r="BN8" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D9" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E9" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="B9" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F9" s="9">
         <v>-50</v>
       </c>
       <c r="H9" s="5">
@@ -4218,74 +2694,56 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="AY9" s="1">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="AZ9" s="1">
         <v>-100</v>
       </c>
       <c r="BA9" s="1">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="BB9" s="1">
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="2">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="BE9" s="5">
         <v>0.47916666666666702</v>
       </c>
       <c r="BF9" s="1">
-        <v>-99</v>
+        <v>2</v>
       </c>
       <c r="BG9" s="1">
         <v>-100</v>
       </c>
       <c r="BH9" s="1">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>4</v>
+        <v>-100</v>
       </c>
       <c r="BJ9" s="2">
-        <v>-99</v>
-      </c>
-      <c r="BL9" s="5">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="BM9" s="1">
         <v>2</v>
       </c>
-      <c r="BN9" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0.5</v>
       </c>
-      <c r="B10" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D10" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E10" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="B10" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E10" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F10" s="9">
         <v>-50</v>
       </c>
       <c r="H10" s="5">
@@ -4400,74 +2858,56 @@
         <v>0.5</v>
       </c>
       <c r="AY10" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ10" s="1">
         <v>-100</v>
       </c>
       <c r="BA10" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB10" s="1">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="BC10" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE10" s="5">
         <v>0.5</v>
       </c>
       <c r="BF10" s="1">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="BG10" s="1">
         <v>-100</v>
       </c>
       <c r="BH10" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>5</v>
+        <v>-100</v>
       </c>
       <c r="BJ10" s="2">
-        <v>-100</v>
-      </c>
-      <c r="BL10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="BM10" s="1">
         <v>3</v>
       </c>
-      <c r="BN10" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ10" s="2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B11" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D11" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E11" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="B11" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F11" s="9">
         <v>-50</v>
       </c>
       <c r="H11" s="5">
@@ -4582,74 +3022,56 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="AY11" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ11" s="1">
         <v>-100</v>
       </c>
       <c r="BA11" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB11" s="1">
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="BC11" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE11" s="5">
         <v>0.52083333333333304</v>
       </c>
       <c r="BF11" s="1">
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="BG11" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BH11" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>4</v>
+        <v>-99</v>
       </c>
       <c r="BJ11" s="2">
-        <v>-100</v>
-      </c>
-      <c r="BL11" s="5">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>4</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BQ11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B12" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D12" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E12" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="B12" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F12" s="9">
         <v>-50</v>
       </c>
       <c r="H12" s="5">
@@ -4764,74 +3186,56 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="AY12" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ12" s="1">
         <v>-100</v>
       </c>
       <c r="BA12" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB12" s="1">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="BC12" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE12" s="5">
         <v>0.54166666666666696</v>
       </c>
       <c r="BF12" s="1">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="BG12" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ12" s="2">
-        <v>-100</v>
-      </c>
-      <c r="BL12" s="5">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="BM12" s="1">
         <v>5</v>
       </c>
-      <c r="BN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B13" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D13" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="B13" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F13" s="9">
         <v>-50</v>
       </c>
       <c r="H13" s="5">
@@ -4946,74 +3350,56 @@
         <v>0.5625</v>
       </c>
       <c r="AY13" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ13" s="1">
         <v>-100</v>
       </c>
       <c r="BA13" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB13" s="1">
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE13" s="5">
         <v>0.5625</v>
       </c>
       <c r="BF13" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BG13" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BH13" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BI13" s="1">
-        <v>2</v>
+        <v>-99</v>
       </c>
       <c r="BJ13" s="2">
-        <v>-100</v>
-      </c>
-      <c r="BL13" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="BM13" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BO13" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BP13" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BQ13" s="2">
         <v>-99</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B14" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D14" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="B14" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F14" s="9">
         <v>-50</v>
       </c>
       <c r="H14" s="5">
@@ -5128,19 +3514,19 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="AY14" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ14" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BA14" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB14" s="1">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE14" s="5">
         <v>0.58333333333333304</v>
@@ -5155,47 +3541,29 @@
         <v>-100</v>
       </c>
       <c r="BI14" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="BJ14" s="2">
         <v>-100</v>
       </c>
-      <c r="BL14" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="BM14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BN14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BP14" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ14" s="2">
-        <v>-100</v>
-      </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B15" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C15" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D15" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="B15" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F15" s="9">
         <v>-50</v>
       </c>
       <c r="H15" s="5">
@@ -5310,19 +3678,19 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="AY15" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ15" s="1">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="BA15" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB15" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE15" s="5">
         <v>0.60416666666666696</v>
@@ -5331,53 +3699,35 @@
         <v>-100</v>
       </c>
       <c r="BG15" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BH15" s="1">
         <v>-100</v>
       </c>
       <c r="BI15" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="BJ15" s="2">
         <v>-100</v>
       </c>
-      <c r="BL15" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="BM15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BN15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BP15" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>-100</v>
-      </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>0.625</v>
       </c>
-      <c r="B16" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C16" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D16" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E16" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="B16" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F16" s="9">
         <v>-50</v>
       </c>
       <c r="H16" s="5">
@@ -5492,74 +3842,56 @@
         <v>0.625</v>
       </c>
       <c r="AY16" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ16" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="BA16" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB16" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE16" s="5">
         <v>0.625</v>
       </c>
       <c r="BF16" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BG16" s="1">
-        <v>2</v>
+        <v>-100</v>
       </c>
       <c r="BH16" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BI16" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="BJ16" s="2">
-        <v>-100</v>
-      </c>
-      <c r="BL16" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="BM16" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BN16" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BO16" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BP16" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BQ16" s="2">
         <v>-99</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>0.64583333333333404</v>
       </c>
-      <c r="B17" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C17" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D17" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E17" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="B17" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F17" s="9">
         <v>-50</v>
       </c>
       <c r="H17" s="5">
@@ -5674,74 +4006,56 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="AY17" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="AZ17" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="BA17" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BB17" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BE17" s="5">
         <v>0.64583333333333404</v>
       </c>
       <c r="BF17" s="1">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="BG17" s="1">
-        <v>3</v>
+        <v>-99</v>
       </c>
       <c r="BH17" s="1">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="BI17" s="1">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="BJ17" s="2">
-        <v>-100</v>
-      </c>
-      <c r="BL17" s="5">
-        <v>0.64583333333333404</v>
-      </c>
-      <c r="BM17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN17" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BO17" s="1">
-        <v>5</v>
-      </c>
-      <c r="BP17" s="1">
-        <v>-99</v>
-      </c>
-      <c r="BQ17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B18" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C18" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D18" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E18" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="B18" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F18" s="9">
         <v>-50</v>
       </c>
       <c r="H18" s="5">
@@ -5856,74 +4170,56 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="AY18" s="1">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="AZ18" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="BA18" s="1">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>-5</v>
+        <v>-99</v>
       </c>
       <c r="BE18" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="BF18" s="1">
-        <v>-99</v>
+        <v>2</v>
       </c>
       <c r="BG18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH18" s="1">
-        <v>-99</v>
+        <v>4</v>
       </c>
       <c r="BI18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ18" s="2">
-        <v>-99</v>
-      </c>
-      <c r="BL18" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="BM18" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN18" s="1">
-        <v>5</v>
-      </c>
-      <c r="BO18" s="1">
-        <v>4</v>
-      </c>
-      <c r="BP18" s="1">
-        <v>5</v>
-      </c>
-      <c r="BQ18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B19" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C19" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D19" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E19" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="B19" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F19" s="9">
         <v>-50</v>
       </c>
       <c r="H19" s="5">
@@ -6038,16 +4334,16 @@
         <v>0.6875</v>
       </c>
       <c r="AY19" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="AZ19" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="BA19" s="1">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="BB19" s="1">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="BC19" s="2">
         <v>-5</v>
@@ -6056,56 +4352,38 @@
         <v>0.6875</v>
       </c>
       <c r="BF19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI19" s="1">
-        <v>-99</v>
+        <v>4</v>
       </c>
       <c r="BJ19" s="2">
-        <v>-5</v>
-      </c>
-      <c r="BL19" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="BM19" s="1">
-        <v>3</v>
-      </c>
-      <c r="BN19" s="1">
-        <v>4</v>
-      </c>
-      <c r="BO19" s="1">
-        <v>3</v>
-      </c>
-      <c r="BP19" s="1">
-        <v>4</v>
-      </c>
-      <c r="BQ19" s="2">
         <v>-100</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B20" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D20" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E20" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="B20" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E20" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F20" s="9">
         <v>-50</v>
       </c>
       <c r="H20" s="5">
@@ -6220,16 +4498,16 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="AY20" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="AZ20" s="1">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="BA20" s="1">
-        <v>-99</v>
+        <v>4</v>
       </c>
       <c r="BB20" s="1">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="BC20" s="2">
         <v>-5</v>
@@ -6241,53 +4519,35 @@
         <v>4</v>
       </c>
       <c r="BG20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI20" s="1">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="BJ20" s="2">
-        <v>-5</v>
-      </c>
-      <c r="BL20" s="5">
-        <v>0.70833333333333404</v>
-      </c>
-      <c r="BM20" s="1">
-        <v>4</v>
-      </c>
-      <c r="BN20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BO20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ20" s="2">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B21" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C21" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D21" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E21" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="B21" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F21" s="9">
         <v>-50</v>
       </c>
       <c r="H21" s="5">
@@ -6402,16 +4662,16 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="AY21" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="AZ21" s="1">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="BA21" s="1">
-        <v>-100</v>
+        <v>3</v>
       </c>
       <c r="BB21" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BC21" s="2">
         <v>-5</v>
@@ -6420,56 +4680,38 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="BF21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG21" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <v>3</v>
+        <v>-100</v>
       </c>
       <c r="BI21" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="2">
-        <v>-5</v>
-      </c>
-      <c r="BL21" s="5">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="BM21" s="1">
-        <v>5</v>
-      </c>
-      <c r="BN21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO21" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BP21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="2">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>0.75</v>
       </c>
-      <c r="B22" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C22" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D22" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E22" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="B22" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F22" s="9">
         <v>-50</v>
       </c>
       <c r="H22" s="5">
@@ -6584,16 +4826,16 @@
         <v>0.75</v>
       </c>
       <c r="AY22" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="AZ22" s="1">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="BA22" s="1">
-        <v>-100</v>
+        <v>2</v>
       </c>
       <c r="BB22" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BC22" s="2">
         <v>-5</v>
@@ -6602,56 +4844,38 @@
         <v>0.75</v>
       </c>
       <c r="BF22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>2</v>
+        <v>-100</v>
       </c>
       <c r="BI22" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="2">
-        <v>-5</v>
-      </c>
-      <c r="BL22" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="BM22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO22" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="2">
         <v>-100</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>0.77083333333333404</v>
       </c>
-      <c r="B23" s="9">
-        <v>-50</v>
-      </c>
-      <c r="C23" s="9">
-        <v>-50</v>
-      </c>
-      <c r="D23" s="9">
-        <v>-50</v>
-      </c>
-      <c r="E23" s="9">
-        <v>-50</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="B23" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-50</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-50</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-50</v>
+      </c>
+      <c r="F23" s="9">
         <v>-50</v>
       </c>
       <c r="H23" s="5">
@@ -6766,16 +4990,16 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="AY23" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="1">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
-        <v>-100</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="1">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BC23" s="2">
         <v>-5</v>
@@ -6784,56 +5008,38 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="BF23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="1">
-        <v>1</v>
+        <v>-100</v>
       </c>
       <c r="BI23" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="2">
-        <v>-5</v>
-      </c>
-      <c r="BL23" s="5">
-        <v>0.77083333333333404</v>
-      </c>
-      <c r="BM23" s="1">
-        <v>3</v>
-      </c>
-      <c r="BN23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO23" s="1">
-        <v>-100</v>
-      </c>
-      <c r="BP23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ23" s="2">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="11">
-        <v>-50</v>
-      </c>
-      <c r="C24" s="11">
-        <v>-50</v>
-      </c>
-      <c r="D24" s="11">
-        <v>-50</v>
-      </c>
-      <c r="E24" s="11">
-        <v>-50</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="B24" s="10">
+        <v>-50</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-50</v>
+      </c>
+      <c r="D24" s="10">
+        <v>-50</v>
+      </c>
+      <c r="E24" s="10">
+        <v>-50</v>
+      </c>
+      <c r="F24" s="11">
         <v>-50</v>
       </c>
       <c r="H24" s="5">
@@ -6948,16 +5154,16 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="AY24" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="3">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="3">
-        <v>-5</v>
+        <v>-100</v>
       </c>
       <c r="BC24" s="4">
         <v>-5</v>
@@ -6966,40 +5172,22 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="BF24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG24" s="3">
         <v>0</v>
       </c>
       <c r="BH24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="BI24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="4">
-        <v>-5</v>
-      </c>
-      <c r="BL24" s="5">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="BM24" s="3">
-        <v>2</v>
-      </c>
-      <c r="BN24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="BP24" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="4">
         <v>-100</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -7011,11 +5199,11 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1">
         <v>8</v>
       </c>
@@ -7027,11 +5215,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1">
         <f>C27 + 1</f>
         <v>9</v>
@@ -7042,7 +5230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -7052,7 +5240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7062,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -7074,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7135,243 +5323,243 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
   </mergeCells>
-  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:BD24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
-    <cfRule type="cellIs" dxfId="159" priority="139" operator="equal">
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AW24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
+    <cfRule type="cellIs" dxfId="79" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="140" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="141" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="142" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="240" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="241" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24">
-    <cfRule type="cellIs" dxfId="152" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="79" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="145" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="86" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="87" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="88" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="138" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AA6">
-    <cfRule type="cellIs" dxfId="131" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA24">
-    <cfRule type="cellIs" dxfId="124" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="117" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:BD24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
-    <cfRule type="cellIs" dxfId="110" priority="105" operator="equal">
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AW24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
+    <cfRule type="cellIs" dxfId="30" priority="105" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK1:BQ24">
-    <cfRule type="cellIs" dxfId="103" priority="26" operator="equal">
+  <conditionalFormatting sqref="BD1:BJ24">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:BJ24">
-    <cfRule type="cellIs" dxfId="96" priority="18" operator="equal">
+  <conditionalFormatting sqref="AX1:BC24">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7484,7 +5672,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="25" operator="containsText" id="{DC4F45F0-A295-4ED3-97E0-2C38404DEA26}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,BK1)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(-5,BD1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
               <font>
@@ -7497,11 +5685,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BK1:BQ24</xm:sqref>
+          <xm:sqref>BD1:BJ24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{64681BE5-62F0-4BE2-B713-DF3D34ECA7EB}">
-            <xm:f>NOT(ISERROR(SEARCH(-5,BE1)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH(-5,AX1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
               <font>
@@ -7514,7 +5702,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>BE1:BJ24</xm:sqref>
+          <xm:sqref>AX1:BC24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/availability.xlsx
+++ b/availability.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32823DE2-3594-499A-9A09-73F67BC511BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CDF4D-1885-4DB6-8B2C-4FF0833E6E6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
   <sheets>
     <sheet name="Availability" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignments" sheetId="4" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
   <si>
     <t>Mon</t>
   </si>
@@ -156,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -208,11 +212,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -228,11 +309,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -943,6 +1042,3171 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Assignments"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>1</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>0</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
+          <cell r="Q2">
+            <v>0</v>
+          </cell>
+          <cell r="R2">
+            <v>1</v>
+          </cell>
+          <cell r="S2">
+            <v>0</v>
+          </cell>
+          <cell r="T2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>1</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+          <cell r="Z2">
+            <v>0</v>
+          </cell>
+          <cell r="AA2">
+            <v>0</v>
+          </cell>
+          <cell r="AD2">
+            <v>0</v>
+          </cell>
+          <cell r="AE2">
+            <v>0</v>
+          </cell>
+          <cell r="AF2">
+            <v>0</v>
+          </cell>
+          <cell r="AG2">
+            <v>0</v>
+          </cell>
+          <cell r="AH2">
+            <v>0</v>
+          </cell>
+          <cell r="AK2">
+            <v>0</v>
+          </cell>
+          <cell r="AL2">
+            <v>0</v>
+          </cell>
+          <cell r="AM2">
+            <v>0</v>
+          </cell>
+          <cell r="AN2">
+            <v>1</v>
+          </cell>
+          <cell r="AO2">
+            <v>0</v>
+          </cell>
+          <cell r="AR2">
+            <v>0</v>
+          </cell>
+          <cell r="AS2">
+            <v>0</v>
+          </cell>
+          <cell r="AT2">
+            <v>0</v>
+          </cell>
+          <cell r="AU2">
+            <v>0</v>
+          </cell>
+          <cell r="AV2">
+            <v>0</v>
+          </cell>
+          <cell r="AY2">
+            <v>0</v>
+          </cell>
+          <cell r="AZ2">
+            <v>0</v>
+          </cell>
+          <cell r="BA2">
+            <v>0</v>
+          </cell>
+          <cell r="BB2">
+            <v>0</v>
+          </cell>
+          <cell r="BC2">
+            <v>1</v>
+          </cell>
+          <cell r="BF2">
+            <v>0</v>
+          </cell>
+          <cell r="BG2">
+            <v>0</v>
+          </cell>
+          <cell r="BH2">
+            <v>0</v>
+          </cell>
+          <cell r="BI2">
+            <v>0</v>
+          </cell>
+          <cell r="BJ2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>1</v>
+          </cell>
+          <cell r="J3">
+            <v>0</v>
+          </cell>
+          <cell r="K3">
+            <v>0</v>
+          </cell>
+          <cell r="L3">
+            <v>0</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
+          </cell>
+          <cell r="R3">
+            <v>1</v>
+          </cell>
+          <cell r="S3">
+            <v>0</v>
+          </cell>
+          <cell r="T3">
+            <v>0</v>
+          </cell>
+          <cell r="W3">
+            <v>0</v>
+          </cell>
+          <cell r="X3">
+            <v>1</v>
+          </cell>
+          <cell r="Y3">
+            <v>0</v>
+          </cell>
+          <cell r="Z3">
+            <v>0</v>
+          </cell>
+          <cell r="AA3">
+            <v>0</v>
+          </cell>
+          <cell r="AD3">
+            <v>0</v>
+          </cell>
+          <cell r="AE3">
+            <v>0</v>
+          </cell>
+          <cell r="AF3">
+            <v>0</v>
+          </cell>
+          <cell r="AG3">
+            <v>0</v>
+          </cell>
+          <cell r="AH3">
+            <v>0</v>
+          </cell>
+          <cell r="AK3">
+            <v>0</v>
+          </cell>
+          <cell r="AL3">
+            <v>0</v>
+          </cell>
+          <cell r="AM3">
+            <v>0</v>
+          </cell>
+          <cell r="AN3">
+            <v>1</v>
+          </cell>
+          <cell r="AO3">
+            <v>0</v>
+          </cell>
+          <cell r="AR3">
+            <v>0</v>
+          </cell>
+          <cell r="AS3">
+            <v>0</v>
+          </cell>
+          <cell r="AT3">
+            <v>0</v>
+          </cell>
+          <cell r="AU3">
+            <v>0</v>
+          </cell>
+          <cell r="AV3">
+            <v>0</v>
+          </cell>
+          <cell r="AY3">
+            <v>0</v>
+          </cell>
+          <cell r="AZ3">
+            <v>0</v>
+          </cell>
+          <cell r="BA3">
+            <v>0</v>
+          </cell>
+          <cell r="BB3">
+            <v>0</v>
+          </cell>
+          <cell r="BC3">
+            <v>1</v>
+          </cell>
+          <cell r="BF3">
+            <v>0</v>
+          </cell>
+          <cell r="BG3">
+            <v>0</v>
+          </cell>
+          <cell r="BH3">
+            <v>0</v>
+          </cell>
+          <cell r="BI3">
+            <v>0</v>
+          </cell>
+          <cell r="BJ3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>1</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>0</v>
+          </cell>
+          <cell r="L4">
+            <v>0</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="P4">
+            <v>0</v>
+          </cell>
+          <cell r="Q4">
+            <v>0</v>
+          </cell>
+          <cell r="R4">
+            <v>1</v>
+          </cell>
+          <cell r="S4">
+            <v>0</v>
+          </cell>
+          <cell r="T4">
+            <v>0</v>
+          </cell>
+          <cell r="W4">
+            <v>0</v>
+          </cell>
+          <cell r="X4">
+            <v>1</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
+            <v>0</v>
+          </cell>
+          <cell r="AA4">
+            <v>0</v>
+          </cell>
+          <cell r="AD4">
+            <v>0</v>
+          </cell>
+          <cell r="AE4">
+            <v>0</v>
+          </cell>
+          <cell r="AF4">
+            <v>0</v>
+          </cell>
+          <cell r="AG4">
+            <v>0</v>
+          </cell>
+          <cell r="AH4">
+            <v>0</v>
+          </cell>
+          <cell r="AK4">
+            <v>0</v>
+          </cell>
+          <cell r="AL4">
+            <v>0</v>
+          </cell>
+          <cell r="AM4">
+            <v>0</v>
+          </cell>
+          <cell r="AN4">
+            <v>1</v>
+          </cell>
+          <cell r="AO4">
+            <v>0</v>
+          </cell>
+          <cell r="AR4">
+            <v>0</v>
+          </cell>
+          <cell r="AS4">
+            <v>0</v>
+          </cell>
+          <cell r="AT4">
+            <v>0</v>
+          </cell>
+          <cell r="AU4">
+            <v>0</v>
+          </cell>
+          <cell r="AV4">
+            <v>0</v>
+          </cell>
+          <cell r="AY4">
+            <v>0</v>
+          </cell>
+          <cell r="AZ4">
+            <v>0</v>
+          </cell>
+          <cell r="BA4">
+            <v>0</v>
+          </cell>
+          <cell r="BB4">
+            <v>0</v>
+          </cell>
+          <cell r="BC4">
+            <v>1</v>
+          </cell>
+          <cell r="BF4">
+            <v>0</v>
+          </cell>
+          <cell r="BG4">
+            <v>0</v>
+          </cell>
+          <cell r="BH4">
+            <v>0</v>
+          </cell>
+          <cell r="BI4">
+            <v>0</v>
+          </cell>
+          <cell r="BJ4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>1</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>1</v>
+          </cell>
+          <cell r="M5">
+            <v>1</v>
+          </cell>
+          <cell r="P5">
+            <v>0</v>
+          </cell>
+          <cell r="Q5">
+            <v>0</v>
+          </cell>
+          <cell r="R5">
+            <v>1</v>
+          </cell>
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="T5">
+            <v>0</v>
+          </cell>
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+          <cell r="X5">
+            <v>1</v>
+          </cell>
+          <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
+            <v>0</v>
+          </cell>
+          <cell r="AA5">
+            <v>0</v>
+          </cell>
+          <cell r="AD5">
+            <v>0</v>
+          </cell>
+          <cell r="AE5">
+            <v>0</v>
+          </cell>
+          <cell r="AF5">
+            <v>0</v>
+          </cell>
+          <cell r="AG5">
+            <v>0</v>
+          </cell>
+          <cell r="AH5">
+            <v>0</v>
+          </cell>
+          <cell r="AK5">
+            <v>1</v>
+          </cell>
+          <cell r="AL5">
+            <v>0</v>
+          </cell>
+          <cell r="AM5">
+            <v>1</v>
+          </cell>
+          <cell r="AN5">
+            <v>0</v>
+          </cell>
+          <cell r="AO5">
+            <v>0</v>
+          </cell>
+          <cell r="AR5">
+            <v>0</v>
+          </cell>
+          <cell r="AS5">
+            <v>0</v>
+          </cell>
+          <cell r="AT5">
+            <v>0</v>
+          </cell>
+          <cell r="AU5">
+            <v>0</v>
+          </cell>
+          <cell r="AV5">
+            <v>0</v>
+          </cell>
+          <cell r="AY5">
+            <v>0</v>
+          </cell>
+          <cell r="AZ5">
+            <v>0</v>
+          </cell>
+          <cell r="BA5">
+            <v>0</v>
+          </cell>
+          <cell r="BB5">
+            <v>0</v>
+          </cell>
+          <cell r="BC5">
+            <v>0</v>
+          </cell>
+          <cell r="BF5">
+            <v>0</v>
+          </cell>
+          <cell r="BG5">
+            <v>0</v>
+          </cell>
+          <cell r="BH5">
+            <v>0</v>
+          </cell>
+          <cell r="BI5">
+            <v>0</v>
+          </cell>
+          <cell r="BJ5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>1</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>1</v>
+          </cell>
+          <cell r="M6">
+            <v>1</v>
+          </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>0</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+          <cell r="T6">
+            <v>0</v>
+          </cell>
+          <cell r="W6">
+            <v>0</v>
+          </cell>
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+          <cell r="AA6">
+            <v>0</v>
+          </cell>
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
+          <cell r="AF6">
+            <v>0</v>
+          </cell>
+          <cell r="AG6">
+            <v>0</v>
+          </cell>
+          <cell r="AH6">
+            <v>0</v>
+          </cell>
+          <cell r="AK6">
+            <v>1</v>
+          </cell>
+          <cell r="AL6">
+            <v>0</v>
+          </cell>
+          <cell r="AM6">
+            <v>1</v>
+          </cell>
+          <cell r="AN6">
+            <v>0</v>
+          </cell>
+          <cell r="AO6">
+            <v>0</v>
+          </cell>
+          <cell r="AR6">
+            <v>0</v>
+          </cell>
+          <cell r="AS6">
+            <v>0</v>
+          </cell>
+          <cell r="AT6">
+            <v>0</v>
+          </cell>
+          <cell r="AU6">
+            <v>0</v>
+          </cell>
+          <cell r="AV6">
+            <v>0</v>
+          </cell>
+          <cell r="AY6">
+            <v>0</v>
+          </cell>
+          <cell r="AZ6">
+            <v>0</v>
+          </cell>
+          <cell r="BA6">
+            <v>0</v>
+          </cell>
+          <cell r="BB6">
+            <v>0</v>
+          </cell>
+          <cell r="BC6">
+            <v>0</v>
+          </cell>
+          <cell r="BF6">
+            <v>0</v>
+          </cell>
+          <cell r="BG6">
+            <v>0</v>
+          </cell>
+          <cell r="BH6">
+            <v>0</v>
+          </cell>
+          <cell r="BI6">
+            <v>0</v>
+          </cell>
+          <cell r="BJ6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>0</v>
+          </cell>
+          <cell r="M7">
+            <v>1</v>
+          </cell>
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>0</v>
+          </cell>
+          <cell r="W7">
+            <v>0</v>
+          </cell>
+          <cell r="X7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>0</v>
+          </cell>
+          <cell r="Z7">
+            <v>0</v>
+          </cell>
+          <cell r="AA7">
+            <v>0</v>
+          </cell>
+          <cell r="AD7">
+            <v>0</v>
+          </cell>
+          <cell r="AE7">
+            <v>0</v>
+          </cell>
+          <cell r="AF7">
+            <v>0</v>
+          </cell>
+          <cell r="AG7">
+            <v>0</v>
+          </cell>
+          <cell r="AH7">
+            <v>0</v>
+          </cell>
+          <cell r="AK7">
+            <v>1</v>
+          </cell>
+          <cell r="AL7">
+            <v>0</v>
+          </cell>
+          <cell r="AM7">
+            <v>1</v>
+          </cell>
+          <cell r="AN7">
+            <v>0</v>
+          </cell>
+          <cell r="AO7">
+            <v>0</v>
+          </cell>
+          <cell r="AR7">
+            <v>0</v>
+          </cell>
+          <cell r="AS7">
+            <v>0</v>
+          </cell>
+          <cell r="AT7">
+            <v>0</v>
+          </cell>
+          <cell r="AU7">
+            <v>0</v>
+          </cell>
+          <cell r="AV7">
+            <v>0</v>
+          </cell>
+          <cell r="AY7">
+            <v>0</v>
+          </cell>
+          <cell r="AZ7">
+            <v>0</v>
+          </cell>
+          <cell r="BA7">
+            <v>0</v>
+          </cell>
+          <cell r="BB7">
+            <v>1</v>
+          </cell>
+          <cell r="BC7">
+            <v>0</v>
+          </cell>
+          <cell r="BF7">
+            <v>0</v>
+          </cell>
+          <cell r="BG7">
+            <v>0</v>
+          </cell>
+          <cell r="BH7">
+            <v>0</v>
+          </cell>
+          <cell r="BI7">
+            <v>0</v>
+          </cell>
+          <cell r="BJ7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>1</v>
+          </cell>
+          <cell r="W8">
+            <v>0</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>0</v>
+          </cell>
+          <cell r="AA8">
+            <v>1</v>
+          </cell>
+          <cell r="AD8">
+            <v>0</v>
+          </cell>
+          <cell r="AE8">
+            <v>0</v>
+          </cell>
+          <cell r="AF8">
+            <v>0</v>
+          </cell>
+          <cell r="AG8">
+            <v>0</v>
+          </cell>
+          <cell r="AH8">
+            <v>0</v>
+          </cell>
+          <cell r="AK8">
+            <v>1</v>
+          </cell>
+          <cell r="AL8">
+            <v>0</v>
+          </cell>
+          <cell r="AM8">
+            <v>1</v>
+          </cell>
+          <cell r="AN8">
+            <v>0</v>
+          </cell>
+          <cell r="AO8">
+            <v>0</v>
+          </cell>
+          <cell r="AR8">
+            <v>0</v>
+          </cell>
+          <cell r="AS8">
+            <v>0</v>
+          </cell>
+          <cell r="AT8">
+            <v>0</v>
+          </cell>
+          <cell r="AU8">
+            <v>0</v>
+          </cell>
+          <cell r="AV8">
+            <v>0</v>
+          </cell>
+          <cell r="AY8">
+            <v>0</v>
+          </cell>
+          <cell r="AZ8">
+            <v>0</v>
+          </cell>
+          <cell r="BA8">
+            <v>0</v>
+          </cell>
+          <cell r="BB8">
+            <v>1</v>
+          </cell>
+          <cell r="BC8">
+            <v>0</v>
+          </cell>
+          <cell r="BF8">
+            <v>1</v>
+          </cell>
+          <cell r="BG8">
+            <v>0</v>
+          </cell>
+          <cell r="BH8">
+            <v>0</v>
+          </cell>
+          <cell r="BI8">
+            <v>0</v>
+          </cell>
+          <cell r="BJ8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
+          <cell r="J9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>1</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="P9">
+            <v>0</v>
+          </cell>
+          <cell r="Q9">
+            <v>0</v>
+          </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>1</v>
+          </cell>
+          <cell r="W9">
+            <v>0</v>
+          </cell>
+          <cell r="X9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>0</v>
+          </cell>
+          <cell r="Z9">
+            <v>0</v>
+          </cell>
+          <cell r="AA9">
+            <v>1</v>
+          </cell>
+          <cell r="AD9">
+            <v>0</v>
+          </cell>
+          <cell r="AE9">
+            <v>0</v>
+          </cell>
+          <cell r="AF9">
+            <v>0</v>
+          </cell>
+          <cell r="AG9">
+            <v>0</v>
+          </cell>
+          <cell r="AH9">
+            <v>0</v>
+          </cell>
+          <cell r="AK9">
+            <v>0</v>
+          </cell>
+          <cell r="AL9">
+            <v>0</v>
+          </cell>
+          <cell r="AM9">
+            <v>0</v>
+          </cell>
+          <cell r="AN9">
+            <v>0</v>
+          </cell>
+          <cell r="AO9">
+            <v>0</v>
+          </cell>
+          <cell r="AR9">
+            <v>0</v>
+          </cell>
+          <cell r="AS9">
+            <v>0</v>
+          </cell>
+          <cell r="AT9">
+            <v>0</v>
+          </cell>
+          <cell r="AU9">
+            <v>0</v>
+          </cell>
+          <cell r="AV9">
+            <v>0</v>
+          </cell>
+          <cell r="AY9">
+            <v>0</v>
+          </cell>
+          <cell r="AZ9">
+            <v>0</v>
+          </cell>
+          <cell r="BA9">
+            <v>0</v>
+          </cell>
+          <cell r="BB9">
+            <v>1</v>
+          </cell>
+          <cell r="BC9">
+            <v>0</v>
+          </cell>
+          <cell r="BF9">
+            <v>1</v>
+          </cell>
+          <cell r="BG9">
+            <v>0</v>
+          </cell>
+          <cell r="BH9">
+            <v>0</v>
+          </cell>
+          <cell r="BI9">
+            <v>0</v>
+          </cell>
+          <cell r="BJ9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>1</v>
+          </cell>
+          <cell r="L10">
+            <v>0</v>
+          </cell>
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+          <cell r="P10">
+            <v>0</v>
+          </cell>
+          <cell r="Q10">
+            <v>0</v>
+          </cell>
+          <cell r="R10">
+            <v>0</v>
+          </cell>
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>1</v>
+          </cell>
+          <cell r="W10">
+            <v>0</v>
+          </cell>
+          <cell r="X10">
+            <v>0</v>
+          </cell>
+          <cell r="Y10">
+            <v>0</v>
+          </cell>
+          <cell r="Z10">
+            <v>0</v>
+          </cell>
+          <cell r="AA10">
+            <v>1</v>
+          </cell>
+          <cell r="AD10">
+            <v>0</v>
+          </cell>
+          <cell r="AE10">
+            <v>0</v>
+          </cell>
+          <cell r="AF10">
+            <v>0</v>
+          </cell>
+          <cell r="AG10">
+            <v>0</v>
+          </cell>
+          <cell r="AH10">
+            <v>0</v>
+          </cell>
+          <cell r="AK10">
+            <v>0</v>
+          </cell>
+          <cell r="AL10">
+            <v>0</v>
+          </cell>
+          <cell r="AM10">
+            <v>0</v>
+          </cell>
+          <cell r="AN10">
+            <v>0</v>
+          </cell>
+          <cell r="AO10">
+            <v>0</v>
+          </cell>
+          <cell r="AR10">
+            <v>1</v>
+          </cell>
+          <cell r="AS10">
+            <v>0</v>
+          </cell>
+          <cell r="AT10">
+            <v>0</v>
+          </cell>
+          <cell r="AU10">
+            <v>0</v>
+          </cell>
+          <cell r="AV10">
+            <v>0</v>
+          </cell>
+          <cell r="AY10">
+            <v>0</v>
+          </cell>
+          <cell r="AZ10">
+            <v>0</v>
+          </cell>
+          <cell r="BA10">
+            <v>0</v>
+          </cell>
+          <cell r="BB10">
+            <v>1</v>
+          </cell>
+          <cell r="BC10">
+            <v>0</v>
+          </cell>
+          <cell r="BF10">
+            <v>1</v>
+          </cell>
+          <cell r="BG10">
+            <v>0</v>
+          </cell>
+          <cell r="BH10">
+            <v>0</v>
+          </cell>
+          <cell r="BI10">
+            <v>0</v>
+          </cell>
+          <cell r="BJ10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>1</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+          <cell r="P11">
+            <v>0</v>
+          </cell>
+          <cell r="Q11">
+            <v>0</v>
+          </cell>
+          <cell r="R11">
+            <v>0</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="W11">
+            <v>0</v>
+          </cell>
+          <cell r="X11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>0</v>
+          </cell>
+          <cell r="AA11">
+            <v>0</v>
+          </cell>
+          <cell r="AD11">
+            <v>0</v>
+          </cell>
+          <cell r="AE11">
+            <v>0</v>
+          </cell>
+          <cell r="AF11">
+            <v>0</v>
+          </cell>
+          <cell r="AG11">
+            <v>0</v>
+          </cell>
+          <cell r="AH11">
+            <v>0</v>
+          </cell>
+          <cell r="AK11">
+            <v>0</v>
+          </cell>
+          <cell r="AL11">
+            <v>0</v>
+          </cell>
+          <cell r="AM11">
+            <v>0</v>
+          </cell>
+          <cell r="AN11">
+            <v>0</v>
+          </cell>
+          <cell r="AO11">
+            <v>0</v>
+          </cell>
+          <cell r="AR11">
+            <v>1</v>
+          </cell>
+          <cell r="AS11">
+            <v>0</v>
+          </cell>
+          <cell r="AT11">
+            <v>0</v>
+          </cell>
+          <cell r="AU11">
+            <v>0</v>
+          </cell>
+          <cell r="AV11">
+            <v>0</v>
+          </cell>
+          <cell r="AY11">
+            <v>0</v>
+          </cell>
+          <cell r="AZ11">
+            <v>0</v>
+          </cell>
+          <cell r="BA11">
+            <v>0</v>
+          </cell>
+          <cell r="BB11">
+            <v>1</v>
+          </cell>
+          <cell r="BC11">
+            <v>0</v>
+          </cell>
+          <cell r="BF11">
+            <v>1</v>
+          </cell>
+          <cell r="BG11">
+            <v>0</v>
+          </cell>
+          <cell r="BH11">
+            <v>0</v>
+          </cell>
+          <cell r="BI11">
+            <v>0</v>
+          </cell>
+          <cell r="BJ11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+          <cell r="P12">
+            <v>0</v>
+          </cell>
+          <cell r="Q12">
+            <v>1</v>
+          </cell>
+          <cell r="R12">
+            <v>0</v>
+          </cell>
+          <cell r="S12">
+            <v>0</v>
+          </cell>
+          <cell r="T12">
+            <v>0</v>
+          </cell>
+          <cell r="W12">
+            <v>0</v>
+          </cell>
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+          <cell r="AA12">
+            <v>0</v>
+          </cell>
+          <cell r="AD12">
+            <v>0</v>
+          </cell>
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+          <cell r="AG12">
+            <v>1</v>
+          </cell>
+          <cell r="AH12">
+            <v>0</v>
+          </cell>
+          <cell r="AK12">
+            <v>0</v>
+          </cell>
+          <cell r="AL12">
+            <v>0</v>
+          </cell>
+          <cell r="AM12">
+            <v>0</v>
+          </cell>
+          <cell r="AN12">
+            <v>0</v>
+          </cell>
+          <cell r="AO12">
+            <v>0</v>
+          </cell>
+          <cell r="AR12">
+            <v>1</v>
+          </cell>
+          <cell r="AS12">
+            <v>0</v>
+          </cell>
+          <cell r="AT12">
+            <v>1</v>
+          </cell>
+          <cell r="AU12">
+            <v>0</v>
+          </cell>
+          <cell r="AV12">
+            <v>0</v>
+          </cell>
+          <cell r="AY12">
+            <v>0</v>
+          </cell>
+          <cell r="AZ12">
+            <v>0</v>
+          </cell>
+          <cell r="BA12">
+            <v>0</v>
+          </cell>
+          <cell r="BB12">
+            <v>1</v>
+          </cell>
+          <cell r="BC12">
+            <v>0</v>
+          </cell>
+          <cell r="BF12">
+            <v>1</v>
+          </cell>
+          <cell r="BG12">
+            <v>0</v>
+          </cell>
+          <cell r="BH12">
+            <v>0</v>
+          </cell>
+          <cell r="BI12">
+            <v>0</v>
+          </cell>
+          <cell r="BJ12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+          <cell r="M13">
+            <v>1</v>
+          </cell>
+          <cell r="P13">
+            <v>0</v>
+          </cell>
+          <cell r="Q13">
+            <v>1</v>
+          </cell>
+          <cell r="R13">
+            <v>0</v>
+          </cell>
+          <cell r="S13">
+            <v>0</v>
+          </cell>
+          <cell r="T13">
+            <v>0</v>
+          </cell>
+          <cell r="W13">
+            <v>0</v>
+          </cell>
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+          <cell r="AA13">
+            <v>0</v>
+          </cell>
+          <cell r="AD13">
+            <v>1</v>
+          </cell>
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
+          </cell>
+          <cell r="AG13">
+            <v>1</v>
+          </cell>
+          <cell r="AH13">
+            <v>0</v>
+          </cell>
+          <cell r="AK13">
+            <v>0</v>
+          </cell>
+          <cell r="AL13">
+            <v>0</v>
+          </cell>
+          <cell r="AM13">
+            <v>0</v>
+          </cell>
+          <cell r="AN13">
+            <v>0</v>
+          </cell>
+          <cell r="AO13">
+            <v>0</v>
+          </cell>
+          <cell r="AR13">
+            <v>1</v>
+          </cell>
+          <cell r="AS13">
+            <v>0</v>
+          </cell>
+          <cell r="AT13">
+            <v>1</v>
+          </cell>
+          <cell r="AU13">
+            <v>0</v>
+          </cell>
+          <cell r="AV13">
+            <v>0</v>
+          </cell>
+          <cell r="AY13">
+            <v>0</v>
+          </cell>
+          <cell r="AZ13">
+            <v>0</v>
+          </cell>
+          <cell r="BA13">
+            <v>0</v>
+          </cell>
+          <cell r="BB13">
+            <v>0</v>
+          </cell>
+          <cell r="BC13">
+            <v>0</v>
+          </cell>
+          <cell r="BF13">
+            <v>0</v>
+          </cell>
+          <cell r="BG13">
+            <v>0</v>
+          </cell>
+          <cell r="BH13">
+            <v>0</v>
+          </cell>
+          <cell r="BI13">
+            <v>0</v>
+          </cell>
+          <cell r="BJ13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+          <cell r="M14">
+            <v>1</v>
+          </cell>
+          <cell r="P14">
+            <v>0</v>
+          </cell>
+          <cell r="Q14">
+            <v>1</v>
+          </cell>
+          <cell r="R14">
+            <v>1</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>0</v>
+          </cell>
+          <cell r="W14">
+            <v>0</v>
+          </cell>
+          <cell r="X14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+          <cell r="Z14">
+            <v>0</v>
+          </cell>
+          <cell r="AA14">
+            <v>0</v>
+          </cell>
+          <cell r="AD14">
+            <v>1</v>
+          </cell>
+          <cell r="AE14">
+            <v>0</v>
+          </cell>
+          <cell r="AF14">
+            <v>0</v>
+          </cell>
+          <cell r="AG14">
+            <v>1</v>
+          </cell>
+          <cell r="AH14">
+            <v>0</v>
+          </cell>
+          <cell r="AK14">
+            <v>0</v>
+          </cell>
+          <cell r="AL14">
+            <v>0</v>
+          </cell>
+          <cell r="AM14">
+            <v>0</v>
+          </cell>
+          <cell r="AN14">
+            <v>0</v>
+          </cell>
+          <cell r="AO14">
+            <v>0</v>
+          </cell>
+          <cell r="AR14">
+            <v>0</v>
+          </cell>
+          <cell r="AS14">
+            <v>0</v>
+          </cell>
+          <cell r="AT14">
+            <v>1</v>
+          </cell>
+          <cell r="AU14">
+            <v>0</v>
+          </cell>
+          <cell r="AV14">
+            <v>0</v>
+          </cell>
+          <cell r="AY14">
+            <v>0</v>
+          </cell>
+          <cell r="AZ14">
+            <v>0</v>
+          </cell>
+          <cell r="BA14">
+            <v>0</v>
+          </cell>
+          <cell r="BB14">
+            <v>0</v>
+          </cell>
+          <cell r="BC14">
+            <v>0</v>
+          </cell>
+          <cell r="BF14">
+            <v>0</v>
+          </cell>
+          <cell r="BG14">
+            <v>0</v>
+          </cell>
+          <cell r="BH14">
+            <v>0</v>
+          </cell>
+          <cell r="BI14">
+            <v>0</v>
+          </cell>
+          <cell r="BJ14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+          <cell r="M15">
+            <v>1</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>1</v>
+          </cell>
+          <cell r="R15">
+            <v>1</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
+          <cell r="W15">
+            <v>0</v>
+          </cell>
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+          <cell r="Z15">
+            <v>0</v>
+          </cell>
+          <cell r="AA15">
+            <v>0</v>
+          </cell>
+          <cell r="AD15">
+            <v>1</v>
+          </cell>
+          <cell r="AE15">
+            <v>0</v>
+          </cell>
+          <cell r="AF15">
+            <v>0</v>
+          </cell>
+          <cell r="AG15">
+            <v>1</v>
+          </cell>
+          <cell r="AH15">
+            <v>0</v>
+          </cell>
+          <cell r="AK15">
+            <v>0</v>
+          </cell>
+          <cell r="AL15">
+            <v>0</v>
+          </cell>
+          <cell r="AM15">
+            <v>0</v>
+          </cell>
+          <cell r="AN15">
+            <v>0</v>
+          </cell>
+          <cell r="AO15">
+            <v>0</v>
+          </cell>
+          <cell r="AR15">
+            <v>1</v>
+          </cell>
+          <cell r="AS15">
+            <v>1</v>
+          </cell>
+          <cell r="AT15">
+            <v>0</v>
+          </cell>
+          <cell r="AU15">
+            <v>1</v>
+          </cell>
+          <cell r="AV15">
+            <v>0</v>
+          </cell>
+          <cell r="AY15">
+            <v>0</v>
+          </cell>
+          <cell r="AZ15">
+            <v>0</v>
+          </cell>
+          <cell r="BA15">
+            <v>0</v>
+          </cell>
+          <cell r="BB15">
+            <v>0</v>
+          </cell>
+          <cell r="BC15">
+            <v>0</v>
+          </cell>
+          <cell r="BF15">
+            <v>0</v>
+          </cell>
+          <cell r="BG15">
+            <v>0</v>
+          </cell>
+          <cell r="BH15">
+            <v>0</v>
+          </cell>
+          <cell r="BI15">
+            <v>0</v>
+          </cell>
+          <cell r="BJ15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+          <cell r="P16">
+            <v>0</v>
+          </cell>
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16">
+            <v>1</v>
+          </cell>
+          <cell r="S16">
+            <v>0</v>
+          </cell>
+          <cell r="T16">
+            <v>1</v>
+          </cell>
+          <cell r="W16">
+            <v>0</v>
+          </cell>
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
+          </cell>
+          <cell r="Z16">
+            <v>0</v>
+          </cell>
+          <cell r="AA16">
+            <v>0</v>
+          </cell>
+          <cell r="AD16">
+            <v>1</v>
+          </cell>
+          <cell r="AE16">
+            <v>1</v>
+          </cell>
+          <cell r="AF16">
+            <v>0</v>
+          </cell>
+          <cell r="AG16">
+            <v>0</v>
+          </cell>
+          <cell r="AH16">
+            <v>0</v>
+          </cell>
+          <cell r="AK16">
+            <v>0</v>
+          </cell>
+          <cell r="AL16">
+            <v>0</v>
+          </cell>
+          <cell r="AM16">
+            <v>0</v>
+          </cell>
+          <cell r="AN16">
+            <v>0</v>
+          </cell>
+          <cell r="AO16">
+            <v>0</v>
+          </cell>
+          <cell r="AR16">
+            <v>1</v>
+          </cell>
+          <cell r="AS16">
+            <v>1</v>
+          </cell>
+          <cell r="AT16">
+            <v>0</v>
+          </cell>
+          <cell r="AU16">
+            <v>1</v>
+          </cell>
+          <cell r="AV16">
+            <v>0</v>
+          </cell>
+          <cell r="AY16">
+            <v>0</v>
+          </cell>
+          <cell r="AZ16">
+            <v>0</v>
+          </cell>
+          <cell r="BA16">
+            <v>0</v>
+          </cell>
+          <cell r="BB16">
+            <v>0</v>
+          </cell>
+          <cell r="BC16">
+            <v>0</v>
+          </cell>
+          <cell r="BF16">
+            <v>0</v>
+          </cell>
+          <cell r="BG16">
+            <v>0</v>
+          </cell>
+          <cell r="BH16">
+            <v>0</v>
+          </cell>
+          <cell r="BI16">
+            <v>0</v>
+          </cell>
+          <cell r="BJ16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+          <cell r="M17">
+            <v>0</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+          <cell r="Q17">
+            <v>0</v>
+          </cell>
+          <cell r="R17">
+            <v>0</v>
+          </cell>
+          <cell r="S17">
+            <v>0</v>
+          </cell>
+          <cell r="T17">
+            <v>1</v>
+          </cell>
+          <cell r="W17">
+            <v>0</v>
+          </cell>
+          <cell r="X17">
+            <v>0</v>
+          </cell>
+          <cell r="Y17">
+            <v>1</v>
+          </cell>
+          <cell r="Z17">
+            <v>0</v>
+          </cell>
+          <cell r="AA17">
+            <v>0</v>
+          </cell>
+          <cell r="AD17">
+            <v>1</v>
+          </cell>
+          <cell r="AE17">
+            <v>1</v>
+          </cell>
+          <cell r="AF17">
+            <v>0</v>
+          </cell>
+          <cell r="AG17">
+            <v>0</v>
+          </cell>
+          <cell r="AH17">
+            <v>0</v>
+          </cell>
+          <cell r="AK17">
+            <v>0</v>
+          </cell>
+          <cell r="AL17">
+            <v>0</v>
+          </cell>
+          <cell r="AM17">
+            <v>0</v>
+          </cell>
+          <cell r="AN17">
+            <v>0</v>
+          </cell>
+          <cell r="AO17">
+            <v>0</v>
+          </cell>
+          <cell r="AR17">
+            <v>1</v>
+          </cell>
+          <cell r="AS17">
+            <v>1</v>
+          </cell>
+          <cell r="AT17">
+            <v>0</v>
+          </cell>
+          <cell r="AU17">
+            <v>1</v>
+          </cell>
+          <cell r="AV17">
+            <v>0</v>
+          </cell>
+          <cell r="AY17">
+            <v>0</v>
+          </cell>
+          <cell r="AZ17">
+            <v>0</v>
+          </cell>
+          <cell r="BA17">
+            <v>0</v>
+          </cell>
+          <cell r="BB17">
+            <v>0</v>
+          </cell>
+          <cell r="BC17">
+            <v>0</v>
+          </cell>
+          <cell r="BF17">
+            <v>0</v>
+          </cell>
+          <cell r="BG17">
+            <v>0</v>
+          </cell>
+          <cell r="BH17">
+            <v>1</v>
+          </cell>
+          <cell r="BI17">
+            <v>0</v>
+          </cell>
+          <cell r="BJ17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>1</v>
+          </cell>
+          <cell r="L18">
+            <v>0</v>
+          </cell>
+          <cell r="M18">
+            <v>0</v>
+          </cell>
+          <cell r="P18">
+            <v>0</v>
+          </cell>
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18">
+            <v>1</v>
+          </cell>
+          <cell r="S18">
+            <v>0</v>
+          </cell>
+          <cell r="T18">
+            <v>1</v>
+          </cell>
+          <cell r="W18">
+            <v>1</v>
+          </cell>
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+          <cell r="Y18">
+            <v>1</v>
+          </cell>
+          <cell r="Z18">
+            <v>1</v>
+          </cell>
+          <cell r="AA18">
+            <v>0</v>
+          </cell>
+          <cell r="AD18">
+            <v>0</v>
+          </cell>
+          <cell r="AE18">
+            <v>1</v>
+          </cell>
+          <cell r="AF18">
+            <v>1</v>
+          </cell>
+          <cell r="AG18">
+            <v>0</v>
+          </cell>
+          <cell r="AH18">
+            <v>0</v>
+          </cell>
+          <cell r="AK18">
+            <v>0</v>
+          </cell>
+          <cell r="AL18">
+            <v>0</v>
+          </cell>
+          <cell r="AM18">
+            <v>1</v>
+          </cell>
+          <cell r="AN18">
+            <v>0</v>
+          </cell>
+          <cell r="AO18">
+            <v>0</v>
+          </cell>
+          <cell r="AR18">
+            <v>1</v>
+          </cell>
+          <cell r="AS18">
+            <v>0</v>
+          </cell>
+          <cell r="AT18">
+            <v>1</v>
+          </cell>
+          <cell r="AU18">
+            <v>0</v>
+          </cell>
+          <cell r="AV18">
+            <v>0</v>
+          </cell>
+          <cell r="AY18">
+            <v>0</v>
+          </cell>
+          <cell r="AZ18">
+            <v>1</v>
+          </cell>
+          <cell r="BA18">
+            <v>1</v>
+          </cell>
+          <cell r="BB18">
+            <v>0</v>
+          </cell>
+          <cell r="BC18">
+            <v>0</v>
+          </cell>
+          <cell r="BF18">
+            <v>0</v>
+          </cell>
+          <cell r="BG18">
+            <v>0</v>
+          </cell>
+          <cell r="BH18">
+            <v>1</v>
+          </cell>
+          <cell r="BI18">
+            <v>1</v>
+          </cell>
+          <cell r="BJ18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+          <cell r="K19">
+            <v>1</v>
+          </cell>
+          <cell r="L19">
+            <v>0</v>
+          </cell>
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+          <cell r="Q19">
+            <v>0</v>
+          </cell>
+          <cell r="R19">
+            <v>1</v>
+          </cell>
+          <cell r="S19">
+            <v>0</v>
+          </cell>
+          <cell r="T19">
+            <v>0</v>
+          </cell>
+          <cell r="W19">
+            <v>1</v>
+          </cell>
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+          <cell r="Y19">
+            <v>1</v>
+          </cell>
+          <cell r="Z19">
+            <v>1</v>
+          </cell>
+          <cell r="AA19">
+            <v>0</v>
+          </cell>
+          <cell r="AD19">
+            <v>0</v>
+          </cell>
+          <cell r="AE19">
+            <v>1</v>
+          </cell>
+          <cell r="AF19">
+            <v>1</v>
+          </cell>
+          <cell r="AG19">
+            <v>0</v>
+          </cell>
+          <cell r="AH19">
+            <v>0</v>
+          </cell>
+          <cell r="AK19">
+            <v>0</v>
+          </cell>
+          <cell r="AL19">
+            <v>0</v>
+          </cell>
+          <cell r="AM19">
+            <v>1</v>
+          </cell>
+          <cell r="AN19">
+            <v>0</v>
+          </cell>
+          <cell r="AO19">
+            <v>1</v>
+          </cell>
+          <cell r="AR19">
+            <v>0</v>
+          </cell>
+          <cell r="AS19">
+            <v>0</v>
+          </cell>
+          <cell r="AT19">
+            <v>1</v>
+          </cell>
+          <cell r="AU19">
+            <v>0</v>
+          </cell>
+          <cell r="AV19">
+            <v>0</v>
+          </cell>
+          <cell r="AY19">
+            <v>0</v>
+          </cell>
+          <cell r="AZ19">
+            <v>1</v>
+          </cell>
+          <cell r="BA19">
+            <v>1</v>
+          </cell>
+          <cell r="BB19">
+            <v>0</v>
+          </cell>
+          <cell r="BC19">
+            <v>0</v>
+          </cell>
+          <cell r="BF19">
+            <v>1</v>
+          </cell>
+          <cell r="BG19">
+            <v>0</v>
+          </cell>
+          <cell r="BH19">
+            <v>1</v>
+          </cell>
+          <cell r="BI19">
+            <v>1</v>
+          </cell>
+          <cell r="BJ19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
+          <cell r="K20">
+            <v>1</v>
+          </cell>
+          <cell r="L20">
+            <v>0</v>
+          </cell>
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="R20">
+            <v>1</v>
+          </cell>
+          <cell r="S20">
+            <v>0</v>
+          </cell>
+          <cell r="T20">
+            <v>0</v>
+          </cell>
+          <cell r="W20">
+            <v>1</v>
+          </cell>
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>1</v>
+          </cell>
+          <cell r="Z20">
+            <v>1</v>
+          </cell>
+          <cell r="AA20">
+            <v>0</v>
+          </cell>
+          <cell r="AD20">
+            <v>0</v>
+          </cell>
+          <cell r="AE20">
+            <v>0</v>
+          </cell>
+          <cell r="AF20">
+            <v>1</v>
+          </cell>
+          <cell r="AG20">
+            <v>0</v>
+          </cell>
+          <cell r="AH20">
+            <v>0</v>
+          </cell>
+          <cell r="AK20">
+            <v>0</v>
+          </cell>
+          <cell r="AL20">
+            <v>0</v>
+          </cell>
+          <cell r="AM20">
+            <v>1</v>
+          </cell>
+          <cell r="AN20">
+            <v>0</v>
+          </cell>
+          <cell r="AO20">
+            <v>1</v>
+          </cell>
+          <cell r="AR20">
+            <v>0</v>
+          </cell>
+          <cell r="AS20">
+            <v>0</v>
+          </cell>
+          <cell r="AT20">
+            <v>1</v>
+          </cell>
+          <cell r="AU20">
+            <v>0</v>
+          </cell>
+          <cell r="AV20">
+            <v>0</v>
+          </cell>
+          <cell r="AY20">
+            <v>0</v>
+          </cell>
+          <cell r="AZ20">
+            <v>1</v>
+          </cell>
+          <cell r="BA20">
+            <v>1</v>
+          </cell>
+          <cell r="BB20">
+            <v>0</v>
+          </cell>
+          <cell r="BC20">
+            <v>0</v>
+          </cell>
+          <cell r="BF20">
+            <v>1</v>
+          </cell>
+          <cell r="BG20">
+            <v>0</v>
+          </cell>
+          <cell r="BH20">
+            <v>1</v>
+          </cell>
+          <cell r="BI20">
+            <v>1</v>
+          </cell>
+          <cell r="BJ20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
+          </cell>
+          <cell r="Q21">
+            <v>0</v>
+          </cell>
+          <cell r="R21">
+            <v>0</v>
+          </cell>
+          <cell r="S21">
+            <v>0</v>
+          </cell>
+          <cell r="T21">
+            <v>0</v>
+          </cell>
+          <cell r="W21">
+            <v>1</v>
+          </cell>
+          <cell r="X21">
+            <v>0</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+          <cell r="Z21">
+            <v>1</v>
+          </cell>
+          <cell r="AA21">
+            <v>0</v>
+          </cell>
+          <cell r="AD21">
+            <v>0</v>
+          </cell>
+          <cell r="AE21">
+            <v>0</v>
+          </cell>
+          <cell r="AF21">
+            <v>0</v>
+          </cell>
+          <cell r="AG21">
+            <v>0</v>
+          </cell>
+          <cell r="AH21">
+            <v>1</v>
+          </cell>
+          <cell r="AK21">
+            <v>0</v>
+          </cell>
+          <cell r="AL21">
+            <v>0</v>
+          </cell>
+          <cell r="AM21">
+            <v>0</v>
+          </cell>
+          <cell r="AN21">
+            <v>0</v>
+          </cell>
+          <cell r="AO21">
+            <v>1</v>
+          </cell>
+          <cell r="AR21">
+            <v>0</v>
+          </cell>
+          <cell r="AS21">
+            <v>0</v>
+          </cell>
+          <cell r="AT21">
+            <v>0</v>
+          </cell>
+          <cell r="AU21">
+            <v>0</v>
+          </cell>
+          <cell r="AV21">
+            <v>0</v>
+          </cell>
+          <cell r="AY21">
+            <v>0</v>
+          </cell>
+          <cell r="AZ21">
+            <v>1</v>
+          </cell>
+          <cell r="BA21">
+            <v>1</v>
+          </cell>
+          <cell r="BB21">
+            <v>0</v>
+          </cell>
+          <cell r="BC21">
+            <v>0</v>
+          </cell>
+          <cell r="BF21">
+            <v>1</v>
+          </cell>
+          <cell r="BG21">
+            <v>0</v>
+          </cell>
+          <cell r="BH21">
+            <v>0</v>
+          </cell>
+          <cell r="BI21">
+            <v>0</v>
+          </cell>
+          <cell r="BJ21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>1</v>
+          </cell>
+          <cell r="M22">
+            <v>0</v>
+          </cell>
+          <cell r="P22">
+            <v>0</v>
+          </cell>
+          <cell r="Q22">
+            <v>0</v>
+          </cell>
+          <cell r="R22">
+            <v>0</v>
+          </cell>
+          <cell r="S22">
+            <v>0</v>
+          </cell>
+          <cell r="T22">
+            <v>0</v>
+          </cell>
+          <cell r="W22">
+            <v>1</v>
+          </cell>
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>0</v>
+          </cell>
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+          <cell r="AA22">
+            <v>0</v>
+          </cell>
+          <cell r="AD22">
+            <v>0</v>
+          </cell>
+          <cell r="AE22">
+            <v>0</v>
+          </cell>
+          <cell r="AF22">
+            <v>0</v>
+          </cell>
+          <cell r="AG22">
+            <v>0</v>
+          </cell>
+          <cell r="AH22">
+            <v>1</v>
+          </cell>
+          <cell r="AK22">
+            <v>0</v>
+          </cell>
+          <cell r="AL22">
+            <v>1</v>
+          </cell>
+          <cell r="AM22">
+            <v>0</v>
+          </cell>
+          <cell r="AN22">
+            <v>0</v>
+          </cell>
+          <cell r="AO22">
+            <v>0</v>
+          </cell>
+          <cell r="AR22">
+            <v>0</v>
+          </cell>
+          <cell r="AS22">
+            <v>0</v>
+          </cell>
+          <cell r="AT22">
+            <v>0</v>
+          </cell>
+          <cell r="AU22">
+            <v>0</v>
+          </cell>
+          <cell r="AV22">
+            <v>0</v>
+          </cell>
+          <cell r="AY22">
+            <v>0</v>
+          </cell>
+          <cell r="AZ22">
+            <v>0</v>
+          </cell>
+          <cell r="BA22">
+            <v>1</v>
+          </cell>
+          <cell r="BB22">
+            <v>0</v>
+          </cell>
+          <cell r="BC22">
+            <v>0</v>
+          </cell>
+          <cell r="BF22">
+            <v>1</v>
+          </cell>
+          <cell r="BG22">
+            <v>0</v>
+          </cell>
+          <cell r="BH22">
+            <v>0</v>
+          </cell>
+          <cell r="BI22">
+            <v>0</v>
+          </cell>
+          <cell r="BJ22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>0</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>1</v>
+          </cell>
+          <cell r="M23">
+            <v>0</v>
+          </cell>
+          <cell r="P23">
+            <v>0</v>
+          </cell>
+          <cell r="Q23">
+            <v>0</v>
+          </cell>
+          <cell r="R23">
+            <v>0</v>
+          </cell>
+          <cell r="S23">
+            <v>0</v>
+          </cell>
+          <cell r="T23">
+            <v>0</v>
+          </cell>
+          <cell r="W23">
+            <v>0</v>
+          </cell>
+          <cell r="X23">
+            <v>0</v>
+          </cell>
+          <cell r="Y23">
+            <v>0</v>
+          </cell>
+          <cell r="Z23">
+            <v>0</v>
+          </cell>
+          <cell r="AA23">
+            <v>0</v>
+          </cell>
+          <cell r="AD23">
+            <v>0</v>
+          </cell>
+          <cell r="AE23">
+            <v>0</v>
+          </cell>
+          <cell r="AF23">
+            <v>0</v>
+          </cell>
+          <cell r="AG23">
+            <v>0</v>
+          </cell>
+          <cell r="AH23">
+            <v>1</v>
+          </cell>
+          <cell r="AK23">
+            <v>0</v>
+          </cell>
+          <cell r="AL23">
+            <v>1</v>
+          </cell>
+          <cell r="AM23">
+            <v>0</v>
+          </cell>
+          <cell r="AN23">
+            <v>0</v>
+          </cell>
+          <cell r="AO23">
+            <v>0</v>
+          </cell>
+          <cell r="AR23">
+            <v>0</v>
+          </cell>
+          <cell r="AS23">
+            <v>0</v>
+          </cell>
+          <cell r="AT23">
+            <v>0</v>
+          </cell>
+          <cell r="AU23">
+            <v>0</v>
+          </cell>
+          <cell r="AV23">
+            <v>0</v>
+          </cell>
+          <cell r="AY23">
+            <v>0</v>
+          </cell>
+          <cell r="AZ23">
+            <v>0</v>
+          </cell>
+          <cell r="BA23">
+            <v>1</v>
+          </cell>
+          <cell r="BB23">
+            <v>0</v>
+          </cell>
+          <cell r="BC23">
+            <v>0</v>
+          </cell>
+          <cell r="BF23">
+            <v>1</v>
+          </cell>
+          <cell r="BG23">
+            <v>0</v>
+          </cell>
+          <cell r="BH23">
+            <v>0</v>
+          </cell>
+          <cell r="BI23">
+            <v>0</v>
+          </cell>
+          <cell r="BJ23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>0</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>1</v>
+          </cell>
+          <cell r="M24">
+            <v>0</v>
+          </cell>
+          <cell r="P24">
+            <v>0</v>
+          </cell>
+          <cell r="Q24">
+            <v>0</v>
+          </cell>
+          <cell r="R24">
+            <v>0</v>
+          </cell>
+          <cell r="S24">
+            <v>0</v>
+          </cell>
+          <cell r="T24">
+            <v>0</v>
+          </cell>
+          <cell r="W24">
+            <v>0</v>
+          </cell>
+          <cell r="X24">
+            <v>0</v>
+          </cell>
+          <cell r="Y24">
+            <v>0</v>
+          </cell>
+          <cell r="Z24">
+            <v>0</v>
+          </cell>
+          <cell r="AA24">
+            <v>0</v>
+          </cell>
+          <cell r="AD24">
+            <v>0</v>
+          </cell>
+          <cell r="AE24">
+            <v>0</v>
+          </cell>
+          <cell r="AF24">
+            <v>0</v>
+          </cell>
+          <cell r="AG24">
+            <v>0</v>
+          </cell>
+          <cell r="AH24">
+            <v>1</v>
+          </cell>
+          <cell r="AK24">
+            <v>0</v>
+          </cell>
+          <cell r="AL24">
+            <v>1</v>
+          </cell>
+          <cell r="AM24">
+            <v>0</v>
+          </cell>
+          <cell r="AN24">
+            <v>0</v>
+          </cell>
+          <cell r="AO24">
+            <v>0</v>
+          </cell>
+          <cell r="AR24">
+            <v>0</v>
+          </cell>
+          <cell r="AS24">
+            <v>0</v>
+          </cell>
+          <cell r="AT24">
+            <v>0</v>
+          </cell>
+          <cell r="AU24">
+            <v>0</v>
+          </cell>
+          <cell r="AV24">
+            <v>0</v>
+          </cell>
+          <cell r="AY24">
+            <v>0</v>
+          </cell>
+          <cell r="AZ24">
+            <v>0</v>
+          </cell>
+          <cell r="BA24">
+            <v>1</v>
+          </cell>
+          <cell r="BB24">
+            <v>0</v>
+          </cell>
+          <cell r="BC24">
+            <v>0</v>
+          </cell>
+          <cell r="BF24">
+            <v>1</v>
+          </cell>
+          <cell r="BG24">
+            <v>0</v>
+          </cell>
+          <cell r="BH24">
+            <v>0</v>
+          </cell>
+          <cell r="BI24">
+            <v>0</v>
+          </cell>
+          <cell r="BJ24">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1242,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
   <dimension ref="A1:BJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5324,242 +8588,242 @@
     <mergeCell ref="A28:B28"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AW24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
-    <cfRule type="cellIs" dxfId="79" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="140" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="141" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="142" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="143" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="240" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="241" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA1 V8:AA16 V2:V6 V7:Z7 V17:Z24">
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="79" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="80" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="71" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AA6">
-    <cfRule type="cellIs" dxfId="51" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="63" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="64" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AA24">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AW24 BR1:XFD24 G1:N24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28">
-    <cfRule type="cellIs" dxfId="30" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="105" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BJ24">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:BC24">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5708,4 +8972,5086 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F6A99-AA84-4FE6-9BCF-1526F392FAD1}">
+  <dimension ref="A1:BJ36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="15">
+        <f>[1]Assignments!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <f>[1]Assignments!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="16">
+        <f>[1]Assignments!D2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <f>[1]Assignments!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <f>[1]Assignments!F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="15">
+        <f>[1]Assignments!I2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="16">
+        <f>[1]Assignments!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="16">
+        <f>[1]Assignments!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
+        <f>[1]Assignments!L2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
+        <f>[1]Assignments!M2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P2" s="15">
+        <f>[1]Assignments!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>[1]Assignments!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="16">
+        <f>[1]Assignments!R2</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="16">
+        <f>[1]Assignments!S2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <f>[1]Assignments!T2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W2" s="15">
+        <f>[1]Assignments!W2</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="16">
+        <f>[1]Assignments!X2</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="16">
+        <f>[1]Assignments!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="16">
+        <f>[1]Assignments!Z2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="17">
+        <f>[1]Assignments!AA2</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AD2" s="15">
+        <f>[1]Assignments!AD2</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="16">
+        <f>[1]Assignments!AE2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="16">
+        <f>[1]Assignments!AF2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="16">
+        <f>[1]Assignments!AG2</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="17">
+        <f>[1]Assignments!AH2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK2" s="15">
+        <f>[1]Assignments!AK2</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="16">
+        <f>[1]Assignments!AL2</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="16">
+        <f>[1]Assignments!AM2</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="16">
+        <f>[1]Assignments!AN2</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="17">
+        <f>[1]Assignments!AO2</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR2" s="15">
+        <f>[1]Assignments!AR2</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="16">
+        <f>[1]Assignments!AS2</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="16">
+        <f>[1]Assignments!AT2</f>
+        <v>0</v>
+      </c>
+      <c r="AU2" s="16">
+        <f>[1]Assignments!AU2</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="17">
+        <f>[1]Assignments!AV2</f>
+        <v>0</v>
+      </c>
+      <c r="AX2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AY2" s="15">
+        <f>[1]Assignments!AY2</f>
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="16">
+        <f>[1]Assignments!AZ2</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="16">
+        <f>[1]Assignments!BA2</f>
+        <v>0</v>
+      </c>
+      <c r="BB2" s="16">
+        <f>[1]Assignments!BB2</f>
+        <v>0</v>
+      </c>
+      <c r="BC2" s="17">
+        <f>[1]Assignments!BC2</f>
+        <v>1</v>
+      </c>
+      <c r="BE2" s="13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BF2" s="15">
+        <f>[1]Assignments!BF2</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="16">
+        <f>[1]Assignments!BG2</f>
+        <v>0</v>
+      </c>
+      <c r="BH2" s="16">
+        <f>[1]Assignments!BH2</f>
+        <v>0</v>
+      </c>
+      <c r="BI2" s="16">
+        <f>[1]Assignments!BI2</f>
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="17">
+        <f>[1]Assignments!BJ2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B3" s="18">
+        <f>[1]Assignments!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <f>[1]Assignments!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <f>[1]Assignments!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <f>[1]Assignments!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <f>[1]Assignments!F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I3" s="18">
+        <f>[1]Assignments!I3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="19">
+        <f>[1]Assignments!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <f>[1]Assignments!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <f>[1]Assignments!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <f>[1]Assignments!M3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="P3" s="18">
+        <f>[1]Assignments!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>[1]Assignments!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <f>[1]Assignments!R3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="19">
+        <f>[1]Assignments!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <f>[1]Assignments!T3</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="W3" s="18">
+        <f>[1]Assignments!W3</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="19">
+        <f>[1]Assignments!X3</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="19">
+        <f>[1]Assignments!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19">
+        <f>[1]Assignments!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
+        <f>[1]Assignments!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AD3" s="18">
+        <f>[1]Assignments!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="19">
+        <f>[1]Assignments!AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="19">
+        <f>[1]Assignments!AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="19">
+        <f>[1]Assignments!AG3</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="9">
+        <f>[1]Assignments!AH3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AK3" s="18">
+        <f>[1]Assignments!AK3</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="19">
+        <f>[1]Assignments!AL3</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="19">
+        <f>[1]Assignments!AM3</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="19">
+        <f>[1]Assignments!AN3</f>
+        <v>1</v>
+      </c>
+      <c r="AO3" s="9">
+        <f>[1]Assignments!AO3</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AR3" s="18">
+        <f>[1]Assignments!AR3</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="19">
+        <f>[1]Assignments!AS3</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="19">
+        <f>[1]Assignments!AT3</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="19">
+        <f>[1]Assignments!AU3</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="9">
+        <f>[1]Assignments!AV3</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AY3" s="18">
+        <f>[1]Assignments!AY3</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="19">
+        <f>[1]Assignments!AZ3</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="19">
+        <f>[1]Assignments!BA3</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="19">
+        <f>[1]Assignments!BB3</f>
+        <v>0</v>
+      </c>
+      <c r="BC3" s="9">
+        <f>[1]Assignments!BC3</f>
+        <v>1</v>
+      </c>
+      <c r="BE3" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="BF3" s="18">
+        <f>[1]Assignments!BF3</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="19">
+        <f>[1]Assignments!BG3</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="19">
+        <f>[1]Assignments!BH3</f>
+        <v>0</v>
+      </c>
+      <c r="BI3" s="19">
+        <f>[1]Assignments!BI3</f>
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="9">
+        <f>[1]Assignments!BJ3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="18">
+        <f>[1]Assignments!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
+        <f>[1]Assignments!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <f>[1]Assignments!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <f>[1]Assignments!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <f>[1]Assignments!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="I4" s="18">
+        <f>[1]Assignments!I4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="19">
+        <f>[1]Assignments!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <f>[1]Assignments!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <f>[1]Assignments!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <f>[1]Assignments!M4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="P4" s="18">
+        <f>[1]Assignments!P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>[1]Assignments!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <f>[1]Assignments!R4</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="19">
+        <f>[1]Assignments!S4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <f>[1]Assignments!T4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="W4" s="18">
+        <f>[1]Assignments!W4</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="19">
+        <f>[1]Assignments!X4</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="19">
+        <f>[1]Assignments!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="19">
+        <f>[1]Assignments!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>[1]Assignments!AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="AD4" s="18">
+        <f>[1]Assignments!AD4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="19">
+        <f>[1]Assignments!AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="19">
+        <f>[1]Assignments!AF4</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
+        <f>[1]Assignments!AG4</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9">
+        <f>[1]Assignments!AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="AK4" s="18">
+        <f>[1]Assignments!AK4</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
+        <f>[1]Assignments!AL4</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="19">
+        <f>[1]Assignments!AM4</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="19">
+        <f>[1]Assignments!AN4</f>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="9">
+        <f>[1]Assignments!AO4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="AR4" s="18">
+        <f>[1]Assignments!AR4</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="19">
+        <f>[1]Assignments!AS4</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="19">
+        <f>[1]Assignments!AT4</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="19">
+        <f>[1]Assignments!AU4</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="9">
+        <f>[1]Assignments!AV4</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="AY4" s="18">
+        <f>[1]Assignments!AY4</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="19">
+        <f>[1]Assignments!AZ4</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="19">
+        <f>[1]Assignments!BA4</f>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="19">
+        <f>[1]Assignments!BB4</f>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9">
+        <f>[1]Assignments!BC4</f>
+        <v>1</v>
+      </c>
+      <c r="BE4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="BF4" s="18">
+        <f>[1]Assignments!BF4</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="19">
+        <f>[1]Assignments!BG4</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="19">
+        <f>[1]Assignments!BH4</f>
+        <v>0</v>
+      </c>
+      <c r="BI4" s="19">
+        <f>[1]Assignments!BI4</f>
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="9">
+        <f>[1]Assignments!BJ4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B5" s="18">
+        <f>[1]Assignments!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="19">
+        <f>[1]Assignments!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <f>[1]Assignments!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <f>[1]Assignments!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <f>[1]Assignments!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="I5" s="18">
+        <f>[1]Assignments!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <f>[1]Assignments!J5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <f>[1]Assignments!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <f>[1]Assignments!L5</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <f>[1]Assignments!M5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="P5" s="18">
+        <f>[1]Assignments!P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>[1]Assignments!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <f>[1]Assignments!R5</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <f>[1]Assignments!S5</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <f>[1]Assignments!T5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="W5" s="18">
+        <f>[1]Assignments!W5</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="19">
+        <f>[1]Assignments!X5</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="19">
+        <f>[1]Assignments!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <f>[1]Assignments!Z5</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <f>[1]Assignments!AA5</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="AD5" s="18">
+        <f>[1]Assignments!AD5</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="19">
+        <f>[1]Assignments!AE5</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="19">
+        <f>[1]Assignments!AF5</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="19">
+        <f>[1]Assignments!AG5</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <f>[1]Assignments!AH5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="AK5" s="18">
+        <f>[1]Assignments!AK5</f>
+        <v>1</v>
+      </c>
+      <c r="AL5" s="19">
+        <f>[1]Assignments!AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="19">
+        <f>[1]Assignments!AM5</f>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="19">
+        <f>[1]Assignments!AN5</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="9">
+        <f>[1]Assignments!AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="AR5" s="18">
+        <f>[1]Assignments!AR5</f>
+        <v>0</v>
+      </c>
+      <c r="AS5" s="19">
+        <f>[1]Assignments!AS5</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="19">
+        <f>[1]Assignments!AT5</f>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="19">
+        <f>[1]Assignments!AU5</f>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="9">
+        <f>[1]Assignments!AV5</f>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="AY5" s="18">
+        <f>[1]Assignments!AY5</f>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="19">
+        <f>[1]Assignments!AZ5</f>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="19">
+        <f>[1]Assignments!BA5</f>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="19">
+        <f>[1]Assignments!BB5</f>
+        <v>0</v>
+      </c>
+      <c r="BC5" s="9">
+        <f>[1]Assignments!BC5</f>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="13">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="BF5" s="18">
+        <f>[1]Assignments!BF5</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="19">
+        <f>[1]Assignments!BG5</f>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="19">
+        <f>[1]Assignments!BH5</f>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="19">
+        <f>[1]Assignments!BI5</f>
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="9">
+        <f>[1]Assignments!BJ5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B6" s="18">
+        <f>[1]Assignments!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="19">
+        <f>[1]Assignments!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <f>[1]Assignments!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <f>[1]Assignments!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <f>[1]Assignments!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="I6" s="18">
+        <f>[1]Assignments!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <f>[1]Assignments!J6</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <f>[1]Assignments!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <f>[1]Assignments!L6</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <f>[1]Assignments!M6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="P6" s="18">
+        <f>[1]Assignments!P6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>[1]Assignments!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <f>[1]Assignments!R6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <f>[1]Assignments!S6</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <f>[1]Assignments!T6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="W6" s="18">
+        <f>[1]Assignments!W6</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <f>[1]Assignments!X6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="19">
+        <f>[1]Assignments!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>[1]Assignments!Z6</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <f>[1]Assignments!AA6</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="AD6" s="18">
+        <f>[1]Assignments!AD6</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="19">
+        <f>[1]Assignments!AE6</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="19">
+        <f>[1]Assignments!AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="19">
+        <f>[1]Assignments!AG6</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
+        <f>[1]Assignments!AH6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="AK6" s="18">
+        <f>[1]Assignments!AK6</f>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="19">
+        <f>[1]Assignments!AL6</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="19">
+        <f>[1]Assignments!AM6</f>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="19">
+        <f>[1]Assignments!AN6</f>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="9">
+        <f>[1]Assignments!AO6</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="AR6" s="18">
+        <f>[1]Assignments!AR6</f>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="19">
+        <f>[1]Assignments!AS6</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="19">
+        <f>[1]Assignments!AT6</f>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="19">
+        <f>[1]Assignments!AU6</f>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="9">
+        <f>[1]Assignments!AV6</f>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="AY6" s="18">
+        <f>[1]Assignments!AY6</f>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="19">
+        <f>[1]Assignments!AZ6</f>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="19">
+        <f>[1]Assignments!BA6</f>
+        <v>0</v>
+      </c>
+      <c r="BB6" s="19">
+        <f>[1]Assignments!BB6</f>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9">
+        <f>[1]Assignments!BC6</f>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="13">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="BF6" s="18">
+        <f>[1]Assignments!BF6</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="19">
+        <f>[1]Assignments!BG6</f>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="19">
+        <f>[1]Assignments!BH6</f>
+        <v>0</v>
+      </c>
+      <c r="BI6" s="19">
+        <f>[1]Assignments!BI6</f>
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="9">
+        <f>[1]Assignments!BJ6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="B7" s="18">
+        <f>[1]Assignments!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <f>[1]Assignments!C7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <f>[1]Assignments!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <f>[1]Assignments!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <f>[1]Assignments!F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="I7" s="18">
+        <f>[1]Assignments!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <f>[1]Assignments!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <f>[1]Assignments!K7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <f>[1]Assignments!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <f>[1]Assignments!M7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="P7" s="18">
+        <f>[1]Assignments!P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>[1]Assignments!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <f>[1]Assignments!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <f>[1]Assignments!S7</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <f>[1]Assignments!T7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="W7" s="18">
+        <f>[1]Assignments!W7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <f>[1]Assignments!X7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="19">
+        <f>[1]Assignments!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19">
+        <f>[1]Assignments!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <f>[1]Assignments!AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="AD7" s="18">
+        <f>[1]Assignments!AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="19">
+        <f>[1]Assignments!AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="19">
+        <f>[1]Assignments!AF7</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="19">
+        <f>[1]Assignments!AG7</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <f>[1]Assignments!AH7</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="AK7" s="18">
+        <f>[1]Assignments!AK7</f>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="19">
+        <f>[1]Assignments!AL7</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="19">
+        <f>[1]Assignments!AM7</f>
+        <v>1</v>
+      </c>
+      <c r="AN7" s="19">
+        <f>[1]Assignments!AN7</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="9">
+        <f>[1]Assignments!AO7</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="AR7" s="18">
+        <f>[1]Assignments!AR7</f>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="19">
+        <f>[1]Assignments!AS7</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="19">
+        <f>[1]Assignments!AT7</f>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="19">
+        <f>[1]Assignments!AU7</f>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="9">
+        <f>[1]Assignments!AV7</f>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="AY7" s="18">
+        <f>[1]Assignments!AY7</f>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="19">
+        <f>[1]Assignments!AZ7</f>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="19">
+        <f>[1]Assignments!BA7</f>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="19">
+        <f>[1]Assignments!BB7</f>
+        <v>1</v>
+      </c>
+      <c r="BC7" s="9">
+        <f>[1]Assignments!BC7</f>
+        <v>0</v>
+      </c>
+      <c r="BE7" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="BF7" s="18">
+        <f>[1]Assignments!BF7</f>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="19">
+        <f>[1]Assignments!BG7</f>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="19">
+        <f>[1]Assignments!BH7</f>
+        <v>0</v>
+      </c>
+      <c r="BI7" s="19">
+        <f>[1]Assignments!BI7</f>
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="9">
+        <f>[1]Assignments!BJ7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B8" s="18">
+        <f>[1]Assignments!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <f>[1]Assignments!C8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <f>[1]Assignments!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <f>[1]Assignments!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <f>[1]Assignments!F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="I8" s="18">
+        <f>[1]Assignments!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f>[1]Assignments!J8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <f>[1]Assignments!K8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <f>[1]Assignments!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <f>[1]Assignments!M8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="P8" s="18">
+        <f>[1]Assignments!P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>[1]Assignments!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <f>[1]Assignments!R8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <f>[1]Assignments!S8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <f>[1]Assignments!T8</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="W8" s="18">
+        <f>[1]Assignments!W8</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
+        <f>[1]Assignments!X8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19">
+        <f>[1]Assignments!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19">
+        <f>[1]Assignments!Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <f>[1]Assignments!AA8</f>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="AD8" s="18">
+        <f>[1]Assignments!AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="19">
+        <f>[1]Assignments!AE8</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19">
+        <f>[1]Assignments!AF8</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="19">
+        <f>[1]Assignments!AG8</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9">
+        <f>[1]Assignments!AH8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="AK8" s="18">
+        <f>[1]Assignments!AK8</f>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="19">
+        <f>[1]Assignments!AL8</f>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="19">
+        <f>[1]Assignments!AM8</f>
+        <v>1</v>
+      </c>
+      <c r="AN8" s="19">
+        <f>[1]Assignments!AN8</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="9">
+        <f>[1]Assignments!AO8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="AR8" s="18">
+        <f>[1]Assignments!AR8</f>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="19">
+        <f>[1]Assignments!AS8</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="19">
+        <f>[1]Assignments!AT8</f>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="19">
+        <f>[1]Assignments!AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="9">
+        <f>[1]Assignments!AV8</f>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="AY8" s="18">
+        <f>[1]Assignments!AY8</f>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="19">
+        <f>[1]Assignments!AZ8</f>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="19">
+        <f>[1]Assignments!BA8</f>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="19">
+        <f>[1]Assignments!BB8</f>
+        <v>1</v>
+      </c>
+      <c r="BC8" s="9">
+        <f>[1]Assignments!BC8</f>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="13">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="BF8" s="18">
+        <f>[1]Assignments!BF8</f>
+        <v>1</v>
+      </c>
+      <c r="BG8" s="19">
+        <f>[1]Assignments!BG8</f>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="19">
+        <f>[1]Assignments!BH8</f>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="19">
+        <f>[1]Assignments!BI8</f>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="9">
+        <f>[1]Assignments!BJ8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B9" s="18">
+        <f>[1]Assignments!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="19">
+        <f>[1]Assignments!C9</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <f>[1]Assignments!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <f>[1]Assignments!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <f>[1]Assignments!F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="I9" s="18">
+        <f>[1]Assignments!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <f>[1]Assignments!J9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <f>[1]Assignments!K9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <f>[1]Assignments!L9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f>[1]Assignments!M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="P9" s="18">
+        <f>[1]Assignments!P9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <f>[1]Assignments!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <f>[1]Assignments!R9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <f>[1]Assignments!S9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <f>[1]Assignments!T9</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="W9" s="18">
+        <f>[1]Assignments!W9</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="19">
+        <f>[1]Assignments!X9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="19">
+        <f>[1]Assignments!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="19">
+        <f>[1]Assignments!Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>[1]Assignments!AA9</f>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="AD9" s="18">
+        <f>[1]Assignments!AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="19">
+        <f>[1]Assignments!AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19">
+        <f>[1]Assignments!AF9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="19">
+        <f>[1]Assignments!AG9</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
+        <f>[1]Assignments!AH9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="AK9" s="18">
+        <f>[1]Assignments!AK9</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="19">
+        <f>[1]Assignments!AL9</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="19">
+        <f>[1]Assignments!AM9</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="19">
+        <f>[1]Assignments!AN9</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="9">
+        <f>[1]Assignments!AO9</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="AR9" s="18">
+        <f>[1]Assignments!AR9</f>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="19">
+        <f>[1]Assignments!AS9</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="19">
+        <f>[1]Assignments!AT9</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="19">
+        <f>[1]Assignments!AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="9">
+        <f>[1]Assignments!AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="AY9" s="18">
+        <f>[1]Assignments!AY9</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="19">
+        <f>[1]Assignments!AZ9</f>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="19">
+        <f>[1]Assignments!BA9</f>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="19">
+        <f>[1]Assignments!BB9</f>
+        <v>1</v>
+      </c>
+      <c r="BC9" s="9">
+        <f>[1]Assignments!BC9</f>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="13">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="BF9" s="18">
+        <f>[1]Assignments!BF9</f>
+        <v>1</v>
+      </c>
+      <c r="BG9" s="19">
+        <f>[1]Assignments!BG9</f>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="19">
+        <f>[1]Assignments!BH9</f>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="19">
+        <f>[1]Assignments!BI9</f>
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="9">
+        <f>[1]Assignments!BJ9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="18">
+        <f>[1]Assignments!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="19">
+        <f>[1]Assignments!C10</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <f>[1]Assignments!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <f>[1]Assignments!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <f>[1]Assignments!F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="18">
+        <f>[1]Assignments!I10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f>[1]Assignments!J10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <f>[1]Assignments!K10</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="19">
+        <f>[1]Assignments!L10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <f>[1]Assignments!M10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="18">
+        <f>[1]Assignments!P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <f>[1]Assignments!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <f>[1]Assignments!R10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <f>[1]Assignments!S10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <f>[1]Assignments!T10</f>
+        <v>1</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="18">
+        <f>[1]Assignments!W10</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
+        <f>[1]Assignments!X10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <f>[1]Assignments!Y10</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="19">
+        <f>[1]Assignments!Z10</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <f>[1]Assignments!AA10</f>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AD10" s="18">
+        <f>[1]Assignments!AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="19">
+        <f>[1]Assignments!AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="19">
+        <f>[1]Assignments!AF10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="19">
+        <f>[1]Assignments!AG10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9">
+        <f>[1]Assignments!AH10</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AK10" s="18">
+        <f>[1]Assignments!AK10</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="19">
+        <f>[1]Assignments!AL10</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="19">
+        <f>[1]Assignments!AM10</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="19">
+        <f>[1]Assignments!AN10</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="9">
+        <f>[1]Assignments!AO10</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AR10" s="18">
+        <f>[1]Assignments!AR10</f>
+        <v>1</v>
+      </c>
+      <c r="AS10" s="19">
+        <f>[1]Assignments!AS10</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="19">
+        <f>[1]Assignments!AT10</f>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="19">
+        <f>[1]Assignments!AU10</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="9">
+        <f>[1]Assignments!AV10</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="AY10" s="18">
+        <f>[1]Assignments!AY10</f>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="19">
+        <f>[1]Assignments!AZ10</f>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="19">
+        <f>[1]Assignments!BA10</f>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="19">
+        <f>[1]Assignments!BB10</f>
+        <v>1</v>
+      </c>
+      <c r="BC10" s="9">
+        <f>[1]Assignments!BC10</f>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="BF10" s="18">
+        <f>[1]Assignments!BF10</f>
+        <v>1</v>
+      </c>
+      <c r="BG10" s="19">
+        <f>[1]Assignments!BG10</f>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="19">
+        <f>[1]Assignments!BH10</f>
+        <v>0</v>
+      </c>
+      <c r="BI10" s="19">
+        <f>[1]Assignments!BI10</f>
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="9">
+        <f>[1]Assignments!BJ10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B11" s="18">
+        <f>[1]Assignments!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="19">
+        <f>[1]Assignments!C11</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <f>[1]Assignments!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <f>[1]Assignments!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <f>[1]Assignments!F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="I11" s="18">
+        <f>[1]Assignments!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <f>[1]Assignments!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <f>[1]Assignments!K11</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
+        <f>[1]Assignments!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <f>[1]Assignments!M11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="P11" s="18">
+        <f>[1]Assignments!P11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <f>[1]Assignments!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <f>[1]Assignments!R11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <f>[1]Assignments!S11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <f>[1]Assignments!T11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="W11" s="18">
+        <f>[1]Assignments!W11</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="19">
+        <f>[1]Assignments!X11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="19">
+        <f>[1]Assignments!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="19">
+        <f>[1]Assignments!Z11</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <f>[1]Assignments!AA11</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="AD11" s="18">
+        <f>[1]Assignments!AD11</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="19">
+        <f>[1]Assignments!AE11</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="19">
+        <f>[1]Assignments!AF11</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="19">
+        <f>[1]Assignments!AG11</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9">
+        <f>[1]Assignments!AH11</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="AK11" s="18">
+        <f>[1]Assignments!AK11</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="19">
+        <f>[1]Assignments!AL11</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="19">
+        <f>[1]Assignments!AM11</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="19">
+        <f>[1]Assignments!AN11</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="9">
+        <f>[1]Assignments!AO11</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="AR11" s="18">
+        <f>[1]Assignments!AR11</f>
+        <v>1</v>
+      </c>
+      <c r="AS11" s="19">
+        <f>[1]Assignments!AS11</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="19">
+        <f>[1]Assignments!AT11</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="19">
+        <f>[1]Assignments!AU11</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="9">
+        <f>[1]Assignments!AV11</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="AY11" s="18">
+        <f>[1]Assignments!AY11</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="19">
+        <f>[1]Assignments!AZ11</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="19">
+        <f>[1]Assignments!BA11</f>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="19">
+        <f>[1]Assignments!BB11</f>
+        <v>1</v>
+      </c>
+      <c r="BC11" s="9">
+        <f>[1]Assignments!BC11</f>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="13">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="BF11" s="18">
+        <f>[1]Assignments!BF11</f>
+        <v>1</v>
+      </c>
+      <c r="BG11" s="19">
+        <f>[1]Assignments!BG11</f>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="19">
+        <f>[1]Assignments!BH11</f>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="19">
+        <f>[1]Assignments!BI11</f>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="9">
+        <f>[1]Assignments!BJ11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B12" s="18">
+        <f>[1]Assignments!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="19">
+        <f>[1]Assignments!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <f>[1]Assignments!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <f>[1]Assignments!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <f>[1]Assignments!F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="I12" s="18">
+        <f>[1]Assignments!I12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <f>[1]Assignments!J12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <f>[1]Assignments!K12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <f>[1]Assignments!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <f>[1]Assignments!M12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="P12" s="18">
+        <f>[1]Assignments!P12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>[1]Assignments!Q12</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="19">
+        <f>[1]Assignments!R12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <f>[1]Assignments!S12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <f>[1]Assignments!T12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="W12" s="18">
+        <f>[1]Assignments!W12</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="19">
+        <f>[1]Assignments!X12</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="19">
+        <f>[1]Assignments!Y12</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="19">
+        <f>[1]Assignments!Z12</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <f>[1]Assignments!AA12</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="AD12" s="18">
+        <f>[1]Assignments!AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="19">
+        <f>[1]Assignments!AE12</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="19">
+        <f>[1]Assignments!AF12</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="19">
+        <f>[1]Assignments!AG12</f>
+        <v>1</v>
+      </c>
+      <c r="AH12" s="9">
+        <f>[1]Assignments!AH12</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="AK12" s="18">
+        <f>[1]Assignments!AK12</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="19">
+        <f>[1]Assignments!AL12</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="19">
+        <f>[1]Assignments!AM12</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="19">
+        <f>[1]Assignments!AN12</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="9">
+        <f>[1]Assignments!AO12</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="AR12" s="18">
+        <f>[1]Assignments!AR12</f>
+        <v>1</v>
+      </c>
+      <c r="AS12" s="19">
+        <f>[1]Assignments!AS12</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="19">
+        <f>[1]Assignments!AT12</f>
+        <v>1</v>
+      </c>
+      <c r="AU12" s="19">
+        <f>[1]Assignments!AU12</f>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="9">
+        <f>[1]Assignments!AV12</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="AY12" s="18">
+        <f>[1]Assignments!AY12</f>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="19">
+        <f>[1]Assignments!AZ12</f>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="19">
+        <f>[1]Assignments!BA12</f>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="19">
+        <f>[1]Assignments!BB12</f>
+        <v>1</v>
+      </c>
+      <c r="BC12" s="9">
+        <f>[1]Assignments!BC12</f>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="13">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="BF12" s="18">
+        <f>[1]Assignments!BF12</f>
+        <v>1</v>
+      </c>
+      <c r="BG12" s="19">
+        <f>[1]Assignments!BG12</f>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="19">
+        <f>[1]Assignments!BH12</f>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="19">
+        <f>[1]Assignments!BI12</f>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="9">
+        <f>[1]Assignments!BJ12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="B13" s="18">
+        <f>[1]Assignments!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <f>[1]Assignments!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <f>[1]Assignments!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <f>[1]Assignments!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <f>[1]Assignments!F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="I13" s="18">
+        <f>[1]Assignments!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f>[1]Assignments!J13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <f>[1]Assignments!K13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <f>[1]Assignments!L13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f>[1]Assignments!M13</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="P13" s="18">
+        <f>[1]Assignments!P13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>[1]Assignments!Q13</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="19">
+        <f>[1]Assignments!R13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <f>[1]Assignments!S13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <f>[1]Assignments!T13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="W13" s="18">
+        <f>[1]Assignments!W13</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="19">
+        <f>[1]Assignments!X13</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="19">
+        <f>[1]Assignments!Y13</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="19">
+        <f>[1]Assignments!Z13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <f>[1]Assignments!AA13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="AD13" s="18">
+        <f>[1]Assignments!AD13</f>
+        <v>1</v>
+      </c>
+      <c r="AE13" s="19">
+        <f>[1]Assignments!AE13</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="19">
+        <f>[1]Assignments!AF13</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="19">
+        <f>[1]Assignments!AG13</f>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="9">
+        <f>[1]Assignments!AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="AK13" s="18">
+        <f>[1]Assignments!AK13</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="19">
+        <f>[1]Assignments!AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="19">
+        <f>[1]Assignments!AM13</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="19">
+        <f>[1]Assignments!AN13</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="9">
+        <f>[1]Assignments!AO13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="AR13" s="18">
+        <f>[1]Assignments!AR13</f>
+        <v>1</v>
+      </c>
+      <c r="AS13" s="19">
+        <f>[1]Assignments!AS13</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="19">
+        <f>[1]Assignments!AT13</f>
+        <v>1</v>
+      </c>
+      <c r="AU13" s="19">
+        <f>[1]Assignments!AU13</f>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="9">
+        <f>[1]Assignments!AV13</f>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="AY13" s="18">
+        <f>[1]Assignments!AY13</f>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="19">
+        <f>[1]Assignments!AZ13</f>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="19">
+        <f>[1]Assignments!BA13</f>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="19">
+        <f>[1]Assignments!BB13</f>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="9">
+        <f>[1]Assignments!BC13</f>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="13">
+        <v>0.5625</v>
+      </c>
+      <c r="BF13" s="18">
+        <f>[1]Assignments!BF13</f>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="19">
+        <f>[1]Assignments!BG13</f>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="19">
+        <f>[1]Assignments!BH13</f>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="19">
+        <f>[1]Assignments!BI13</f>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="9">
+        <f>[1]Assignments!BJ13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B14" s="18">
+        <f>[1]Assignments!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <f>[1]Assignments!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <f>[1]Assignments!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <f>[1]Assignments!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <f>[1]Assignments!F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="I14" s="18">
+        <f>[1]Assignments!I14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <f>[1]Assignments!J14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <f>[1]Assignments!K14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f>[1]Assignments!L14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <f>[1]Assignments!M14</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="P14" s="18">
+        <f>[1]Assignments!P14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <f>[1]Assignments!Q14</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="19">
+        <f>[1]Assignments!R14</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="19">
+        <f>[1]Assignments!S14</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <f>[1]Assignments!T14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="W14" s="18">
+        <f>[1]Assignments!W14</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="19">
+        <f>[1]Assignments!X14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
+        <f>[1]Assignments!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="19">
+        <f>[1]Assignments!Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <f>[1]Assignments!AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AD14" s="18">
+        <f>[1]Assignments!AD14</f>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="19">
+        <f>[1]Assignments!AE14</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="19">
+        <f>[1]Assignments!AF14</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="19">
+        <f>[1]Assignments!AG14</f>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="9">
+        <f>[1]Assignments!AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AK14" s="18">
+        <f>[1]Assignments!AK14</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="19">
+        <f>[1]Assignments!AL14</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="19">
+        <f>[1]Assignments!AM14</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="19">
+        <f>[1]Assignments!AN14</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="9">
+        <f>[1]Assignments!AO14</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AR14" s="18">
+        <f>[1]Assignments!AR14</f>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="19">
+        <f>[1]Assignments!AS14</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="19">
+        <f>[1]Assignments!AT14</f>
+        <v>1</v>
+      </c>
+      <c r="AU14" s="19">
+        <f>[1]Assignments!AU14</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="9">
+        <f>[1]Assignments!AV14</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AY14" s="18">
+        <f>[1]Assignments!AY14</f>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="19">
+        <f>[1]Assignments!AZ14</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="19">
+        <f>[1]Assignments!BA14</f>
+        <v>0</v>
+      </c>
+      <c r="BB14" s="19">
+        <f>[1]Assignments!BB14</f>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="9">
+        <f>[1]Assignments!BC14</f>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="13">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="BF14" s="18">
+        <f>[1]Assignments!BF14</f>
+        <v>0</v>
+      </c>
+      <c r="BG14" s="19">
+        <f>[1]Assignments!BG14</f>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="19">
+        <f>[1]Assignments!BH14</f>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="19">
+        <f>[1]Assignments!BI14</f>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="9">
+        <f>[1]Assignments!BJ14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B15" s="18">
+        <f>[1]Assignments!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <f>[1]Assignments!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <f>[1]Assignments!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <f>[1]Assignments!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <f>[1]Assignments!F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="I15" s="18">
+        <f>[1]Assignments!I15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f>[1]Assignments!J15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <f>[1]Assignments!K15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <f>[1]Assignments!L15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <f>[1]Assignments!M15</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="P15" s="18">
+        <f>[1]Assignments!P15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <f>[1]Assignments!Q15</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="19">
+        <f>[1]Assignments!R15</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="19">
+        <f>[1]Assignments!S15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <f>[1]Assignments!T15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="W15" s="18">
+        <f>[1]Assignments!W15</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="19">
+        <f>[1]Assignments!X15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="19">
+        <f>[1]Assignments!Y15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="19">
+        <f>[1]Assignments!Z15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <f>[1]Assignments!AA15</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="AD15" s="18">
+        <f>[1]Assignments!AD15</f>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="19">
+        <f>[1]Assignments!AE15</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="19">
+        <f>[1]Assignments!AF15</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="19">
+        <f>[1]Assignments!AG15</f>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="9">
+        <f>[1]Assignments!AH15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="AK15" s="18">
+        <f>[1]Assignments!AK15</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="19">
+        <f>[1]Assignments!AL15</f>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="19">
+        <f>[1]Assignments!AM15</f>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="19">
+        <f>[1]Assignments!AN15</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="9">
+        <f>[1]Assignments!AO15</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="AR15" s="18">
+        <f>[1]Assignments!AR15</f>
+        <v>1</v>
+      </c>
+      <c r="AS15" s="19">
+        <f>[1]Assignments!AS15</f>
+        <v>1</v>
+      </c>
+      <c r="AT15" s="19">
+        <f>[1]Assignments!AT15</f>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="19">
+        <f>[1]Assignments!AU15</f>
+        <v>1</v>
+      </c>
+      <c r="AV15" s="9">
+        <f>[1]Assignments!AV15</f>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="AY15" s="18">
+        <f>[1]Assignments!AY15</f>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="19">
+        <f>[1]Assignments!AZ15</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="19">
+        <f>[1]Assignments!BA15</f>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="19">
+        <f>[1]Assignments!BB15</f>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="9">
+        <f>[1]Assignments!BC15</f>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="13">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="BF15" s="18">
+        <f>[1]Assignments!BF15</f>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="19">
+        <f>[1]Assignments!BG15</f>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="19">
+        <f>[1]Assignments!BH15</f>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="19">
+        <f>[1]Assignments!BI15</f>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="9">
+        <f>[1]Assignments!BJ15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="B16" s="18">
+        <f>[1]Assignments!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="19">
+        <f>[1]Assignments!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <f>[1]Assignments!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <f>[1]Assignments!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <f>[1]Assignments!F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="I16" s="18">
+        <f>[1]Assignments!I16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <f>[1]Assignments!J16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <f>[1]Assignments!K16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f>[1]Assignments!L16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <f>[1]Assignments!M16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="P16" s="18">
+        <f>[1]Assignments!P16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <f>[1]Assignments!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <f>[1]Assignments!R16</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="19">
+        <f>[1]Assignments!S16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <f>[1]Assignments!T16</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="W16" s="18">
+        <f>[1]Assignments!W16</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="19">
+        <f>[1]Assignments!X16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="19">
+        <f>[1]Assignments!Y16</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="19">
+        <f>[1]Assignments!Z16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <f>[1]Assignments!AA16</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="AD16" s="18">
+        <f>[1]Assignments!AD16</f>
+        <v>1</v>
+      </c>
+      <c r="AE16" s="19">
+        <f>[1]Assignments!AE16</f>
+        <v>1</v>
+      </c>
+      <c r="AF16" s="19">
+        <f>[1]Assignments!AF16</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="19">
+        <f>[1]Assignments!AG16</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="9">
+        <f>[1]Assignments!AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="AK16" s="18">
+        <f>[1]Assignments!AK16</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="19">
+        <f>[1]Assignments!AL16</f>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="19">
+        <f>[1]Assignments!AM16</f>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="19">
+        <f>[1]Assignments!AN16</f>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="9">
+        <f>[1]Assignments!AO16</f>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="AR16" s="18">
+        <f>[1]Assignments!AR16</f>
+        <v>1</v>
+      </c>
+      <c r="AS16" s="19">
+        <f>[1]Assignments!AS16</f>
+        <v>1</v>
+      </c>
+      <c r="AT16" s="19">
+        <f>[1]Assignments!AT16</f>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="19">
+        <f>[1]Assignments!AU16</f>
+        <v>1</v>
+      </c>
+      <c r="AV16" s="9">
+        <f>[1]Assignments!AV16</f>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="AY16" s="18">
+        <f>[1]Assignments!AY16</f>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="19">
+        <f>[1]Assignments!AZ16</f>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="19">
+        <f>[1]Assignments!BA16</f>
+        <v>0</v>
+      </c>
+      <c r="BB16" s="19">
+        <f>[1]Assignments!BB16</f>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="9">
+        <f>[1]Assignments!BC16</f>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="BF16" s="18">
+        <f>[1]Assignments!BF16</f>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="19">
+        <f>[1]Assignments!BG16</f>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="19">
+        <f>[1]Assignments!BH16</f>
+        <v>0</v>
+      </c>
+      <c r="BI16" s="19">
+        <f>[1]Assignments!BI16</f>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="9">
+        <f>[1]Assignments!BJ16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="B17" s="18">
+        <f>[1]Assignments!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="19">
+        <f>[1]Assignments!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <f>[1]Assignments!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <f>[1]Assignments!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <f>[1]Assignments!F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="I17" s="18">
+        <f>[1]Assignments!I17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <f>[1]Assignments!J17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <f>[1]Assignments!K17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <f>[1]Assignments!L17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <f>[1]Assignments!M17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="P17" s="18">
+        <f>[1]Assignments!P17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <f>[1]Assignments!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <f>[1]Assignments!R17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <f>[1]Assignments!S17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
+        <f>[1]Assignments!T17</f>
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="W17" s="18">
+        <f>[1]Assignments!W17</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="19">
+        <f>[1]Assignments!X17</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="19">
+        <f>[1]Assignments!Y17</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="19">
+        <f>[1]Assignments!Z17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <f>[1]Assignments!AA17</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="AD17" s="18">
+        <f>[1]Assignments!AD17</f>
+        <v>1</v>
+      </c>
+      <c r="AE17" s="19">
+        <f>[1]Assignments!AE17</f>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="19">
+        <f>[1]Assignments!AF17</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="19">
+        <f>[1]Assignments!AG17</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <f>[1]Assignments!AH17</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="AK17" s="18">
+        <f>[1]Assignments!AK17</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="19">
+        <f>[1]Assignments!AL17</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="19">
+        <f>[1]Assignments!AM17</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="19">
+        <f>[1]Assignments!AN17</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="9">
+        <f>[1]Assignments!AO17</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="AR17" s="18">
+        <f>[1]Assignments!AR17</f>
+        <v>1</v>
+      </c>
+      <c r="AS17" s="19">
+        <f>[1]Assignments!AS17</f>
+        <v>1</v>
+      </c>
+      <c r="AT17" s="19">
+        <f>[1]Assignments!AT17</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="19">
+        <f>[1]Assignments!AU17</f>
+        <v>1</v>
+      </c>
+      <c r="AV17" s="9">
+        <f>[1]Assignments!AV17</f>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="AY17" s="18">
+        <f>[1]Assignments!AY17</f>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="19">
+        <f>[1]Assignments!AZ17</f>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="19">
+        <f>[1]Assignments!BA17</f>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="19">
+        <f>[1]Assignments!BB17</f>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="9">
+        <f>[1]Assignments!BC17</f>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="13">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="BF17" s="18">
+        <f>[1]Assignments!BF17</f>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="19">
+        <f>[1]Assignments!BG17</f>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="19">
+        <f>[1]Assignments!BH17</f>
+        <v>1</v>
+      </c>
+      <c r="BI17" s="19">
+        <f>[1]Assignments!BI17</f>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="9">
+        <f>[1]Assignments!BJ17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="18">
+        <f>[1]Assignments!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="19">
+        <f>[1]Assignments!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <f>[1]Assignments!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <f>[1]Assignments!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <f>[1]Assignments!F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I18" s="18">
+        <f>[1]Assignments!I18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <f>[1]Assignments!J18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <f>[1]Assignments!K18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="19">
+        <f>[1]Assignments!L18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <f>[1]Assignments!M18</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="P18" s="18">
+        <f>[1]Assignments!P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <f>[1]Assignments!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <f>[1]Assignments!R18</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="19">
+        <f>[1]Assignments!S18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <f>[1]Assignments!T18</f>
+        <v>1</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="W18" s="18">
+        <f>[1]Assignments!W18</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="19">
+        <f>[1]Assignments!X18</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <f>[1]Assignments!Y18</f>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="19">
+        <f>[1]Assignments!Z18</f>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="9">
+        <f>[1]Assignments!AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AD18" s="18">
+        <f>[1]Assignments!AD18</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19">
+        <f>[1]Assignments!AE18</f>
+        <v>1</v>
+      </c>
+      <c r="AF18" s="19">
+        <f>[1]Assignments!AF18</f>
+        <v>1</v>
+      </c>
+      <c r="AG18" s="19">
+        <f>[1]Assignments!AG18</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="9">
+        <f>[1]Assignments!AH18</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AK18" s="18">
+        <f>[1]Assignments!AK18</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="19">
+        <f>[1]Assignments!AL18</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="19">
+        <f>[1]Assignments!AM18</f>
+        <v>1</v>
+      </c>
+      <c r="AN18" s="19">
+        <f>[1]Assignments!AN18</f>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="9">
+        <f>[1]Assignments!AO18</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AR18" s="18">
+        <f>[1]Assignments!AR18</f>
+        <v>1</v>
+      </c>
+      <c r="AS18" s="19">
+        <f>[1]Assignments!AS18</f>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="19">
+        <f>[1]Assignments!AT18</f>
+        <v>1</v>
+      </c>
+      <c r="AU18" s="19">
+        <f>[1]Assignments!AU18</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="9">
+        <f>[1]Assignments!AV18</f>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="AY18" s="18">
+        <f>[1]Assignments!AY18</f>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="19">
+        <f>[1]Assignments!AZ18</f>
+        <v>1</v>
+      </c>
+      <c r="BA18" s="19">
+        <f>[1]Assignments!BA18</f>
+        <v>1</v>
+      </c>
+      <c r="BB18" s="19">
+        <f>[1]Assignments!BB18</f>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="9">
+        <f>[1]Assignments!BC18</f>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="13">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="BF18" s="18">
+        <f>[1]Assignments!BF18</f>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="19">
+        <f>[1]Assignments!BG18</f>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="19">
+        <f>[1]Assignments!BH18</f>
+        <v>1</v>
+      </c>
+      <c r="BI18" s="19">
+        <f>[1]Assignments!BI18</f>
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="9">
+        <f>[1]Assignments!BJ18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="B19" s="18">
+        <f>[1]Assignments!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="19">
+        <f>[1]Assignments!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <f>[1]Assignments!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <f>[1]Assignments!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f>[1]Assignments!F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="I19" s="18">
+        <f>[1]Assignments!I19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <f>[1]Assignments!J19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <f>[1]Assignments!K19</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="19">
+        <f>[1]Assignments!L19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <f>[1]Assignments!M19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="P19" s="18">
+        <f>[1]Assignments!P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19">
+        <f>[1]Assignments!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <f>[1]Assignments!R19</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="19">
+        <f>[1]Assignments!S19</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <f>[1]Assignments!T19</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="W19" s="18">
+        <f>[1]Assignments!W19</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="19">
+        <f>[1]Assignments!X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="19">
+        <f>[1]Assignments!Y19</f>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="19">
+        <f>[1]Assignments!Z19</f>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="9">
+        <f>[1]Assignments!AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="AD19" s="18">
+        <f>[1]Assignments!AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="19">
+        <f>[1]Assignments!AE19</f>
+        <v>1</v>
+      </c>
+      <c r="AF19" s="19">
+        <f>[1]Assignments!AF19</f>
+        <v>1</v>
+      </c>
+      <c r="AG19" s="19">
+        <f>[1]Assignments!AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9">
+        <f>[1]Assignments!AH19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="AK19" s="18">
+        <f>[1]Assignments!AK19</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="19">
+        <f>[1]Assignments!AL19</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="19">
+        <f>[1]Assignments!AM19</f>
+        <v>1</v>
+      </c>
+      <c r="AN19" s="19">
+        <f>[1]Assignments!AN19</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="9">
+        <f>[1]Assignments!AO19</f>
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="AR19" s="18">
+        <f>[1]Assignments!AR19</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="19">
+        <f>[1]Assignments!AS19</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="19">
+        <f>[1]Assignments!AT19</f>
+        <v>1</v>
+      </c>
+      <c r="AU19" s="19">
+        <f>[1]Assignments!AU19</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="9">
+        <f>[1]Assignments!AV19</f>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="AY19" s="18">
+        <f>[1]Assignments!AY19</f>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="19">
+        <f>[1]Assignments!AZ19</f>
+        <v>1</v>
+      </c>
+      <c r="BA19" s="19">
+        <f>[1]Assignments!BA19</f>
+        <v>1</v>
+      </c>
+      <c r="BB19" s="19">
+        <f>[1]Assignments!BB19</f>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="9">
+        <f>[1]Assignments!BC19</f>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="13">
+        <v>0.6875</v>
+      </c>
+      <c r="BF19" s="18">
+        <f>[1]Assignments!BF19</f>
+        <v>1</v>
+      </c>
+      <c r="BG19" s="19">
+        <f>[1]Assignments!BG19</f>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="19">
+        <f>[1]Assignments!BH19</f>
+        <v>1</v>
+      </c>
+      <c r="BI19" s="19">
+        <f>[1]Assignments!BI19</f>
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="9">
+        <f>[1]Assignments!BJ19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="B20" s="18">
+        <f>[1]Assignments!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="19">
+        <f>[1]Assignments!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <f>[1]Assignments!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <f>[1]Assignments!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f>[1]Assignments!F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="I20" s="18">
+        <f>[1]Assignments!I20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <f>[1]Assignments!J20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <f>[1]Assignments!K20</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="19">
+        <f>[1]Assignments!L20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <f>[1]Assignments!M20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="P20" s="18">
+        <f>[1]Assignments!P20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="19">
+        <f>[1]Assignments!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
+        <f>[1]Assignments!R20</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="19">
+        <f>[1]Assignments!S20</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <f>[1]Assignments!T20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="W20" s="18">
+        <f>[1]Assignments!W20</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="19">
+        <f>[1]Assignments!X20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="19">
+        <f>[1]Assignments!Y20</f>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="19">
+        <f>[1]Assignments!Z20</f>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="9">
+        <f>[1]Assignments!AA20</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="AD20" s="18">
+        <f>[1]Assignments!AD20</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="19">
+        <f>[1]Assignments!AE20</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="19">
+        <f>[1]Assignments!AF20</f>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="19">
+        <f>[1]Assignments!AG20</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9">
+        <f>[1]Assignments!AH20</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="AK20" s="18">
+        <f>[1]Assignments!AK20</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="19">
+        <f>[1]Assignments!AL20</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="19">
+        <f>[1]Assignments!AM20</f>
+        <v>1</v>
+      </c>
+      <c r="AN20" s="19">
+        <f>[1]Assignments!AN20</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="9">
+        <f>[1]Assignments!AO20</f>
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="AR20" s="18">
+        <f>[1]Assignments!AR20</f>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="19">
+        <f>[1]Assignments!AS20</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="19">
+        <f>[1]Assignments!AT20</f>
+        <v>1</v>
+      </c>
+      <c r="AU20" s="19">
+        <f>[1]Assignments!AU20</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="9">
+        <f>[1]Assignments!AV20</f>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="AY20" s="18">
+        <f>[1]Assignments!AY20</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="19">
+        <f>[1]Assignments!AZ20</f>
+        <v>1</v>
+      </c>
+      <c r="BA20" s="19">
+        <f>[1]Assignments!BA20</f>
+        <v>1</v>
+      </c>
+      <c r="BB20" s="19">
+        <f>[1]Assignments!BB20</f>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="9">
+        <f>[1]Assignments!BC20</f>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="13">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="BF20" s="18">
+        <f>[1]Assignments!BF20</f>
+        <v>1</v>
+      </c>
+      <c r="BG20" s="19">
+        <f>[1]Assignments!BG20</f>
+        <v>0</v>
+      </c>
+      <c r="BH20" s="19">
+        <f>[1]Assignments!BH20</f>
+        <v>1</v>
+      </c>
+      <c r="BI20" s="19">
+        <f>[1]Assignments!BI20</f>
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="9">
+        <f>[1]Assignments!BJ20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="B21" s="18">
+        <f>[1]Assignments!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="19">
+        <f>[1]Assignments!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <f>[1]Assignments!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <f>[1]Assignments!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f>[1]Assignments!F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="I21" s="18">
+        <f>[1]Assignments!I21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <f>[1]Assignments!J21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <f>[1]Assignments!K21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <f>[1]Assignments!L21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <f>[1]Assignments!M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="P21" s="18">
+        <f>[1]Assignments!P21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="19">
+        <f>[1]Assignments!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="19">
+        <f>[1]Assignments!R21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <f>[1]Assignments!S21</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <f>[1]Assignments!T21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="W21" s="18">
+        <f>[1]Assignments!W21</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="19">
+        <f>[1]Assignments!X21</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="19">
+        <f>[1]Assignments!Y21</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19">
+        <f>[1]Assignments!Z21</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="9">
+        <f>[1]Assignments!AA21</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AD21" s="18">
+        <f>[1]Assignments!AD21</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="19">
+        <f>[1]Assignments!AE21</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="19">
+        <f>[1]Assignments!AF21</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="19">
+        <f>[1]Assignments!AG21</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <f>[1]Assignments!AH21</f>
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AK21" s="18">
+        <f>[1]Assignments!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="19">
+        <f>[1]Assignments!AL21</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="19">
+        <f>[1]Assignments!AM21</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="19">
+        <f>[1]Assignments!AN21</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="9">
+        <f>[1]Assignments!AO21</f>
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AR21" s="18">
+        <f>[1]Assignments!AR21</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="19">
+        <f>[1]Assignments!AS21</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="19">
+        <f>[1]Assignments!AT21</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="19">
+        <f>[1]Assignments!AU21</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="9">
+        <f>[1]Assignments!AV21</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="AY21" s="18">
+        <f>[1]Assignments!AY21</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="19">
+        <f>[1]Assignments!AZ21</f>
+        <v>1</v>
+      </c>
+      <c r="BA21" s="19">
+        <f>[1]Assignments!BA21</f>
+        <v>1</v>
+      </c>
+      <c r="BB21" s="19">
+        <f>[1]Assignments!BB21</f>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="9">
+        <f>[1]Assignments!BC21</f>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="13">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="BF21" s="18">
+        <f>[1]Assignments!BF21</f>
+        <v>1</v>
+      </c>
+      <c r="BG21" s="19">
+        <f>[1]Assignments!BG21</f>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="19">
+        <f>[1]Assignments!BH21</f>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="19">
+        <f>[1]Assignments!BI21</f>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="9">
+        <f>[1]Assignments!BJ21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="B22" s="18">
+        <f>[1]Assignments!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="19">
+        <f>[1]Assignments!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <f>[1]Assignments!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f>[1]Assignments!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <f>[1]Assignments!F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="I22" s="18">
+        <f>[1]Assignments!I22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <f>[1]Assignments!J22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <f>[1]Assignments!K22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
+        <f>[1]Assignments!L22</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <f>[1]Assignments!M22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="18">
+        <f>[1]Assignments!P22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <f>[1]Assignments!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="19">
+        <f>[1]Assignments!R22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="19">
+        <f>[1]Assignments!S22</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <f>[1]Assignments!T22</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="18">
+        <f>[1]Assignments!W22</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="19">
+        <f>[1]Assignments!X22</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="19">
+        <f>[1]Assignments!Y22</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="19">
+        <f>[1]Assignments!Z22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <f>[1]Assignments!AA22</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="AD22" s="18">
+        <f>[1]Assignments!AD22</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="19">
+        <f>[1]Assignments!AE22</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="19">
+        <f>[1]Assignments!AF22</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="19">
+        <f>[1]Assignments!AG22</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <f>[1]Assignments!AH22</f>
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="AK22" s="18">
+        <f>[1]Assignments!AK22</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="19">
+        <f>[1]Assignments!AL22</f>
+        <v>1</v>
+      </c>
+      <c r="AM22" s="19">
+        <f>[1]Assignments!AM22</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="19">
+        <f>[1]Assignments!AN22</f>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="9">
+        <f>[1]Assignments!AO22</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="AR22" s="18">
+        <f>[1]Assignments!AR22</f>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="19">
+        <f>[1]Assignments!AS22</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="19">
+        <f>[1]Assignments!AT22</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="19">
+        <f>[1]Assignments!AU22</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="9">
+        <f>[1]Assignments!AV22</f>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="AY22" s="18">
+        <f>[1]Assignments!AY22</f>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="19">
+        <f>[1]Assignments!AZ22</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="19">
+        <f>[1]Assignments!BA22</f>
+        <v>1</v>
+      </c>
+      <c r="BB22" s="19">
+        <f>[1]Assignments!BB22</f>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="9">
+        <f>[1]Assignments!BC22</f>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="BF22" s="18">
+        <f>[1]Assignments!BF22</f>
+        <v>1</v>
+      </c>
+      <c r="BG22" s="19">
+        <f>[1]Assignments!BG22</f>
+        <v>0</v>
+      </c>
+      <c r="BH22" s="19">
+        <f>[1]Assignments!BH22</f>
+        <v>0</v>
+      </c>
+      <c r="BI22" s="19">
+        <f>[1]Assignments!BI22</f>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="9">
+        <f>[1]Assignments!BJ22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="B23" s="18">
+        <f>[1]Assignments!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="19">
+        <f>[1]Assignments!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <f>[1]Assignments!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <f>[1]Assignments!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <f>[1]Assignments!F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="I23" s="18">
+        <f>[1]Assignments!I23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <f>[1]Assignments!J23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <f>[1]Assignments!K23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="19">
+        <f>[1]Assignments!L23</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <f>[1]Assignments!M23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="P23" s="18">
+        <f>[1]Assignments!P23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="19">
+        <f>[1]Assignments!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="19">
+        <f>[1]Assignments!R23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <f>[1]Assignments!S23</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <f>[1]Assignments!T23</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="W23" s="18">
+        <f>[1]Assignments!W23</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="19">
+        <f>[1]Assignments!X23</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="19">
+        <f>[1]Assignments!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="19">
+        <f>[1]Assignments!Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <f>[1]Assignments!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="AD23" s="18">
+        <f>[1]Assignments!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="19">
+        <f>[1]Assignments!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="19">
+        <f>[1]Assignments!AF23</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="19">
+        <f>[1]Assignments!AG23</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9">
+        <f>[1]Assignments!AH23</f>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="AK23" s="18">
+        <f>[1]Assignments!AK23</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="19">
+        <f>[1]Assignments!AL23</f>
+        <v>1</v>
+      </c>
+      <c r="AM23" s="19">
+        <f>[1]Assignments!AM23</f>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="19">
+        <f>[1]Assignments!AN23</f>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="9">
+        <f>[1]Assignments!AO23</f>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="AR23" s="18">
+        <f>[1]Assignments!AR23</f>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="19">
+        <f>[1]Assignments!AS23</f>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="19">
+        <f>[1]Assignments!AT23</f>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="19">
+        <f>[1]Assignments!AU23</f>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="9">
+        <f>[1]Assignments!AV23</f>
+        <v>0</v>
+      </c>
+      <c r="AX23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="AY23" s="18">
+        <f>[1]Assignments!AY23</f>
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="19">
+        <f>[1]Assignments!AZ23</f>
+        <v>0</v>
+      </c>
+      <c r="BA23" s="19">
+        <f>[1]Assignments!BA23</f>
+        <v>1</v>
+      </c>
+      <c r="BB23" s="19">
+        <f>[1]Assignments!BB23</f>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="9">
+        <f>[1]Assignments!BC23</f>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="13">
+        <v>0.77083333333333404</v>
+      </c>
+      <c r="BF23" s="18">
+        <f>[1]Assignments!BF23</f>
+        <v>1</v>
+      </c>
+      <c r="BG23" s="19">
+        <f>[1]Assignments!BG23</f>
+        <v>0</v>
+      </c>
+      <c r="BH23" s="19">
+        <f>[1]Assignments!BH23</f>
+        <v>0</v>
+      </c>
+      <c r="BI23" s="19">
+        <f>[1]Assignments!BI23</f>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="9">
+        <f>[1]Assignments!BJ23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B24" s="20">
+        <f>[1]Assignments!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <f>[1]Assignments!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <f>[1]Assignments!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <f>[1]Assignments!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
+        <f>[1]Assignments!F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="I24" s="20">
+        <f>[1]Assignments!I24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f>[1]Assignments!J24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f>[1]Assignments!K24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <f>[1]Assignments!L24</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="11">
+        <f>[1]Assignments!M24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="P24" s="20">
+        <f>[1]Assignments!P24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <f>[1]Assignments!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="10">
+        <f>[1]Assignments!R24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="10">
+        <f>[1]Assignments!S24</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <f>[1]Assignments!T24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="W24" s="20">
+        <f>[1]Assignments!W24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
+        <f>[1]Assignments!X24</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
+        <f>[1]Assignments!Y24</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10">
+        <f>[1]Assignments!Z24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="11">
+        <f>[1]Assignments!AA24</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AD24" s="20">
+        <f>[1]Assignments!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="10">
+        <f>[1]Assignments!AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="10">
+        <f>[1]Assignments!AF24</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="10">
+        <f>[1]Assignments!AG24</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="11">
+        <f>[1]Assignments!AH24</f>
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AK24" s="20">
+        <f>[1]Assignments!AK24</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="10">
+        <f>[1]Assignments!AL24</f>
+        <v>1</v>
+      </c>
+      <c r="AM24" s="10">
+        <f>[1]Assignments!AM24</f>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="10">
+        <f>[1]Assignments!AN24</f>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="11">
+        <f>[1]Assignments!AO24</f>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AR24" s="20">
+        <f>[1]Assignments!AR24</f>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="10">
+        <f>[1]Assignments!AS24</f>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="10">
+        <f>[1]Assignments!AT24</f>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="10">
+        <f>[1]Assignments!AU24</f>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="11">
+        <f>[1]Assignments!AV24</f>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="AY24" s="20">
+        <f>[1]Assignments!AY24</f>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="10">
+        <f>[1]Assignments!AZ24</f>
+        <v>0</v>
+      </c>
+      <c r="BA24" s="10">
+        <f>[1]Assignments!BA24</f>
+        <v>1</v>
+      </c>
+      <c r="BB24" s="10">
+        <f>[1]Assignments!BB24</f>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="11">
+        <f>[1]Assignments!BC24</f>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="13">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="BF24" s="20">
+        <f>[1]Assignments!BF24</f>
+        <v>1</v>
+      </c>
+      <c r="BG24" s="10">
+        <f>[1]Assignments!BG24</f>
+        <v>0</v>
+      </c>
+      <c r="BH24" s="10">
+        <f>[1]Assignments!BH24</f>
+        <v>0</v>
+      </c>
+      <c r="BI24" s="10">
+        <f>[1]Assignments!BI24</f>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="11">
+        <f>[1]Assignments!BJ24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/availability.xlsx
+++ b/availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C040784-1FF5-42E8-8DA6-C268C4E0B13A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD4262-B7B9-40A1-9AB5-0F190E887B18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
   <sheets>
     <sheet name="Availability" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Travel time</t>
   </si>
   <si>
-    <t>Cannot work (unavailable)</t>
-  </si>
-  <si>
     <t>Xx</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   <si>
     <t>Unassigned</t>
   </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +139,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -317,11 +330,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -329,65 +358,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1014,224 +984,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1296,360 +1048,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5E913B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4F7EF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5196,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
   <dimension ref="A1:BJ36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5207,7 +4605,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -9147,11 +8545,12 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
@@ -9161,17 +8560,18 @@
       <c r="C27" s="1">
         <v>8</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="1">
@@ -9180,7 +8580,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>4</v>
       </c>
     </row>
@@ -9190,7 +8590,7 @@
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>3</v>
       </c>
     </row>
@@ -9200,7 +8600,7 @@
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>2</v>
       </c>
     </row>
@@ -9208,11 +8608,12 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9220,363 +8621,374 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="1">
         <v>-5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="1">
         <v>-99</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1">
+      <c r="E35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="1">
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="1">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1">
         <v>-50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
   </mergeCells>
-  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AI24 BR1:XFD24 G1:G24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28 N1:N24 AP1:AP24 AW1:AW24">
-    <cfRule type="cellIs" dxfId="160" priority="211" operator="equal">
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AI24 BR1:XFD24 G1:G24 A27:A28 A25:XFD25 A26:C26 A29:C35 C27:C28 N1:N24 AP1:AP24 AW1:AW24 E28:F30 H27:XFD36 A37:XFD1048576 A36:F36 E26:E27 E31:E35 I26:XFD26">
+    <cfRule type="cellIs" dxfId="88" priority="211" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="212" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="213" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="214" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="215" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="312" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="313" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AI24 BR1:XFD24 G1:G24 A27:A28 A25:XFD25 A26:C26 E26:XFD35 A36:XFD1048576 A29:C35 C27:C28 N1:N24 AP1:AP24 AW1:AW24">
-    <cfRule type="cellIs" dxfId="111" priority="177" operator="equal">
+  <conditionalFormatting sqref="U1:U24 AB1:AB24 AI1:AI24 BR1:XFD24 G1:G24 A27:A28 A25:XFD25 A26:C26 A29:C35 C27:C28 N1:N24 AP1:AP24 AW1:AW24 E28:F30 H27:XFD36 A37:XFD1048576 A36:F36 E26:E27 E31:E35 I26:XFD26">
+    <cfRule type="cellIs" dxfId="81" priority="177" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD24">
-    <cfRule type="cellIs" dxfId="110" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="101" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="102" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="103" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="104" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="96" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="79" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="80" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F24">
-    <cfRule type="cellIs" dxfId="89" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:M24">
-    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:M24">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T24">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA24">
-    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:AA24">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AH24">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AO24">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AO24">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AV24">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:AV24">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:BC24">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX1:BC24">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BJ24">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BJ24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9612,8 +9024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F6A99-AA84-4FE6-9BCF-1526F392FAD1}">
   <dimension ref="A1:BJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="AK1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9623,7 +9035,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -14593,18 +14005,18 @@
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="1">
@@ -14616,7 +14028,7 @@
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="1">
@@ -14687,12 +14099,13 @@
       <c r="G36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD25 A27:XFD1048576 A26 D26:XFD26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/availability.xlsx
+++ b/availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\GitHub\life-collegia-schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7268CC6C-F0AE-4B64-BA03-8F9C1C51E201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03809405-07E2-4F1B-9318-F797E3584EF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{750E1001-B131-4AD6-8EA9-0C913AF79012}"/>
   </bookViews>
   <sheets>
     <sheet name="Availability" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -277,11 +277,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -302,11 +333,635 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="161">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5E913B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4F7EF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1544,7 +2199,7 @@
             <v>1</v>
           </cell>
           <cell r="M5">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="P5">
             <v>0</v>
@@ -1592,13 +2247,13 @@
             <v>0</v>
           </cell>
           <cell r="AK5">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AL5">
             <v>0</v>
           </cell>
           <cell r="AM5">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AN5">
             <v>0</v>
@@ -1622,7 +2277,7 @@
             <v>0</v>
           </cell>
           <cell r="AY5">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AZ5">
             <v>0</v>
@@ -1634,7 +2289,7 @@
             <v>0</v>
           </cell>
           <cell r="BC5">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="BF5">
             <v>0</v>
@@ -1681,7 +2336,7 @@
             <v>1</v>
           </cell>
           <cell r="M6">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="P6">
             <v>0</v>
@@ -1741,7 +2396,7 @@
             <v>0</v>
           </cell>
           <cell r="AO6">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AR6">
             <v>0</v>
@@ -1759,7 +2414,7 @@
             <v>0</v>
           </cell>
           <cell r="AY6">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AZ6">
             <v>0</v>
@@ -1818,7 +2473,7 @@
             <v>0</v>
           </cell>
           <cell r="M7">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="P7">
             <v>0</v>
@@ -1878,7 +2533,7 @@
             <v>0</v>
           </cell>
           <cell r="AO7">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AR7">
             <v>0</v>
@@ -1896,7 +2551,7 @@
             <v>0</v>
           </cell>
           <cell r="AY7">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AZ7">
             <v>0</v>
@@ -1985,7 +2640,7 @@
             <v>0</v>
           </cell>
           <cell r="AA8">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AD8">
             <v>0</v>
@@ -2015,7 +2670,7 @@
             <v>0</v>
           </cell>
           <cell r="AO8">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AR8">
             <v>0</v>
@@ -2033,7 +2688,7 @@
             <v>0</v>
           </cell>
           <cell r="AY8">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AZ8">
             <v>0</v>
@@ -2048,7 +2703,7 @@
             <v>0</v>
           </cell>
           <cell r="BF8">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="BG8">
             <v>0</v>
@@ -2122,7 +2777,7 @@
             <v>0</v>
           </cell>
           <cell r="AA9">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AD9">
             <v>0</v>
@@ -2197,7 +2852,7 @@
             <v>0</v>
           </cell>
           <cell r="BJ9">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="10">
@@ -2259,7 +2914,7 @@
             <v>0</v>
           </cell>
           <cell r="AA10">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="AD10">
             <v>0</v>
@@ -2334,7 +2989,7 @@
             <v>0</v>
           </cell>
           <cell r="BJ10">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="11">
@@ -2920,7 +3575,7 @@
             <v>0</v>
           </cell>
           <cell r="Q15">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="R15">
             <v>1</v>
@@ -2950,7 +3605,7 @@
             <v>1</v>
           </cell>
           <cell r="AE15">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="AF15">
             <v>0</v>
@@ -3346,7 +4001,7 @@
             <v>1</v>
           </cell>
           <cell r="X18">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="Y18">
             <v>1</v>
@@ -3406,7 +4061,7 @@
             <v>0</v>
           </cell>
           <cell r="AZ18">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="BA18">
             <v>1</v>
@@ -3477,13 +4132,13 @@
             <v>0</v>
           </cell>
           <cell r="T19">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="W19">
             <v>1</v>
           </cell>
           <cell r="X19">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="Y19">
             <v>1</v>
@@ -3543,7 +4198,7 @@
             <v>0</v>
           </cell>
           <cell r="AZ19">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="BA19">
             <v>1</v>
@@ -3620,7 +4275,7 @@
             <v>1</v>
           </cell>
           <cell r="X20">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="Y20">
             <v>1</v>
@@ -3680,7 +4335,7 @@
             <v>0</v>
           </cell>
           <cell r="AZ20">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="BA20">
             <v>1</v>
@@ -3757,7 +4412,7 @@
             <v>1</v>
           </cell>
           <cell r="X21">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="Y21">
             <v>0</v>
@@ -3817,7 +4472,7 @@
             <v>0</v>
           </cell>
           <cell r="AZ21">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="BA21">
             <v>1</v>
@@ -3891,7 +4546,7 @@
             <v>0</v>
           </cell>
           <cell r="W22">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="X22">
             <v>0</v>
@@ -4423,7 +5078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2444FAFD-DD66-4923-BB24-9F67C6E049D8}">
   <dimension ref="A1:BJ36"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -8040,167 +8695,167 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="14">
         <v>-50</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="15">
         <v>-50</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="15">
         <v>-50</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="15">
         <v>-50</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="16">
         <v>-50</v>
       </c>
       <c r="H23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="14">
         <v>-5</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="15">
         <v>-5</v>
       </c>
-      <c r="K23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="10">
+      <c r="K23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="15">
         <v>-5</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="16">
         <v>-5</v>
       </c>
       <c r="O23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="P23" s="9">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="P23" s="14">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="16">
         <v>-100</v>
       </c>
       <c r="V23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="14">
         <v>2</v>
       </c>
-      <c r="X23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="X23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="16">
         <v>-5</v>
       </c>
       <c r="AC23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AD23" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="10">
+      <c r="AD23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="15">
         <v>-5</v>
       </c>
-      <c r="AG23" s="10">
+      <c r="AG23" s="15">
         <v>-5</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH23" s="16">
         <v>4</v>
       </c>
       <c r="AJ23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AK23" s="9">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="10">
+      <c r="AK23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="15">
         <v>4</v>
       </c>
-      <c r="AM23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="AO23" s="3">
+      <c r="AM23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="AO23" s="16">
         <v>1</v>
       </c>
       <c r="AQ23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AR23" s="9">
-        <v>-100</v>
-      </c>
-      <c r="AS23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="3">
+      <c r="AR23" s="14">
+        <v>-100</v>
+      </c>
+      <c r="AS23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="16">
         <v>-5</v>
       </c>
       <c r="AX23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AY23" s="9">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="10">
-        <v>1</v>
-      </c>
-      <c r="BA23" s="10">
-        <v>1</v>
-      </c>
-      <c r="BB23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="BC23" s="3">
+      <c r="AY23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="15">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="15">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="BC23" s="16">
         <v>-5</v>
       </c>
       <c r="BE23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="BF23" s="9">
+      <c r="BF23" s="14">
         <v>3</v>
       </c>
-      <c r="BG23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="10">
-        <v>-100</v>
-      </c>
-      <c r="BI23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="3">
+      <c r="BG23" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="15">
+        <v>-100</v>
+      </c>
+      <c r="BI23" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="16">
         <v>-100</v>
       </c>
     </row>
@@ -8335,15 +8990,18 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="1">
         <v>-50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="E36:G36"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E35:G35"/>
@@ -8354,306 +9012,530 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="E32:G32"/>
   </mergeCells>
-  <conditionalFormatting sqref="U1:U23 AB1:AB23 AI1:AI23 BR1:XFD23 G1:G23 A27:A28 A24:XFD25 A26:C26 A29:C35 C27:C28 N1:N23 AP1:AP23 AW1:AW23 E28:F30 H27:XFD36 A37:XFD1048576 A36:F36 E26:E27 E31:E35 I26:XFD26">
-    <cfRule type="cellIs" dxfId="88" priority="211" operator="equal">
+  <conditionalFormatting sqref="U1:U23 AB1:AB23 AI1:AI23 BR1:XFD23 G1:G23 A27:A28 A24:XFD25 A26:C26 A29:C35 C27:C28 N1:N23 AP1:AP23 AW1:AW23 E28:F30 H27:XFD36 A37:XFD1048576 A36:E36 E26:E27 E31:E35 I26:XFD26">
+    <cfRule type="cellIs" dxfId="160" priority="283" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="284" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="285" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="286" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="287" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="384" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="385" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U23 AB1:AB23 AI1:AI23 BR1:XFD23 G1:G23 A27:A28 A24:XFD25 A26:C26 A29:C35 C27:C28 N1:N23 AP1:AP23 AW1:AW23 E28:F30 H27:XFD36 A37:XFD1048576 A36:F36 E26:E27 E31:E35 I26:XFD26">
-    <cfRule type="cellIs" dxfId="81" priority="177" operator="equal">
+  <conditionalFormatting sqref="U1:U23 AB1:AB23 AI1:AI23 BR1:XFD23 G1:G23 A27:A28 A24:XFD25 A26:C26 A29:C35 C27:C28 N1:N23 AP1:AP23 AW1:AW23 E28:F30 H27:XFD36 A37:XFD1048576 A36:E36 E26:E27 E31:E35 I26:XFD26">
+    <cfRule type="cellIs" dxfId="153" priority="249" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BD23">
-    <cfRule type="cellIs" dxfId="80" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="173" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="174" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="175" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="176" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F23">
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+  <conditionalFormatting sqref="A1:F1 A2:A23">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="150" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="151" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="152" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:F23">
-    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
+  <conditionalFormatting sqref="A1:F1 A2:A23">
+    <cfRule type="cellIs" dxfId="138" priority="145" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:M23">
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:M23">
-    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="129" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T23">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
+  <conditionalFormatting sqref="O1:T1 O2:O23">
+    <cfRule type="cellIs" dxfId="129" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="125" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="127" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="128" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:T23">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+  <conditionalFormatting sqref="O1:T1 O2:O23">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:AA23">
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+  <conditionalFormatting sqref="V1:AA1 V2:V23">
+    <cfRule type="cellIs" dxfId="121" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="117" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="119" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="120" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:AA23">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+  <conditionalFormatting sqref="V1:AA1 V2:V23">
+    <cfRule type="cellIs" dxfId="114" priority="113" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AH23">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
+  <conditionalFormatting sqref="AC1:AH1 AC2:AC23">
+    <cfRule type="cellIs" dxfId="113" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="112" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AH23">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+  <conditionalFormatting sqref="AC1:AH1 AC2:AC23">
+    <cfRule type="cellIs" dxfId="106" priority="105" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AO23">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+  <conditionalFormatting sqref="AJ1:AO1 AJ2:AJ23">
+    <cfRule type="cellIs" dxfId="105" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="101" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="102" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="103" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="104" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1:AO23">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+  <conditionalFormatting sqref="AJ1:AO1 AJ2:AJ23">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1:AV23">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+  <conditionalFormatting sqref="AQ1:AV1 AQ2:AQ23">
+    <cfRule type="cellIs" dxfId="97" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="96" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1:AV23">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+  <conditionalFormatting sqref="AQ1:AV1 AQ2:AQ23">
+    <cfRule type="cellIs" dxfId="90" priority="89" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX1:BC23">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+  <conditionalFormatting sqref="AX1:BC1 AX2:AX23">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX1:BC23">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="AX1:BC1 AX2:AX23">
+    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:BJ23">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="BE1:BJ1 BE2:BE23">
+    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
       <formula>-99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="80" operator="equal">
       <formula>-100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:BJ23">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="BE1:BJ1 BE2:BE23">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F23">
+    <cfRule type="cellIs" dxfId="71" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="72" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F23">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T23">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="55" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T23">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AA23">
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AA23">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AH23">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="40" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AH23">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AO23">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK2:AO23">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AV23">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR2:AV23">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY2:BC23">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY2:BC23">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF2:BJ23">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>-99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>-100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF2:BJ23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8663,7 +9545,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="97" operator="containsText" id="{DC4F45F0-A295-4ED3-97E0-2C38404DEA26}">
+          <x14:cfRule type="containsText" priority="169" operator="containsText" id="{DC4F45F0-A295-4ED3-97E0-2C38404DEA26}">
             <xm:f>NOT(ISERROR(SEARCH(-5,BD1)))</xm:f>
             <xm:f>-5</xm:f>
             <x14:dxf>
@@ -8689,8 +9571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4F6A99-AA84-4FE6-9BCF-1526F392FAD1}">
   <dimension ref="A1:BJ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="I1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2:BJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9534,7 +10416,7 @@
       </c>
       <c r="M5" s="3">
         <f>[1]Assignments!M5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
         <v>0.39583333333333298</v>
@@ -9610,7 +10492,7 @@
       </c>
       <c r="AK5" s="9">
         <f>[1]Assignments!AK5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="10">
         <f>[1]Assignments!AL5</f>
@@ -9618,7 +10500,7 @@
       </c>
       <c r="AM5" s="10">
         <f>[1]Assignments!AM5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="10">
         <f>[1]Assignments!AN5</f>
@@ -9656,7 +10538,7 @@
       </c>
       <c r="AY5" s="9">
         <f>[1]Assignments!AY5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="10">
         <f>[1]Assignments!AZ5</f>
@@ -9672,7 +10554,7 @@
       </c>
       <c r="BC5" s="3">
         <f>[1]Assignments!BC5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="4">
         <v>0.39583333333333298</v>
@@ -9743,7 +10625,7 @@
       </c>
       <c r="M6" s="3">
         <f>[1]Assignments!M6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
         <v>0.41666666666666702</v>
@@ -9835,7 +10717,7 @@
       </c>
       <c r="AO6" s="3">
         <f>[1]Assignments!AO6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="4">
         <v>0.41666666666666702</v>
@@ -9865,7 +10747,7 @@
       </c>
       <c r="AY6" s="9">
         <f>[1]Assignments!AY6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="10">
         <f>[1]Assignments!AZ6</f>
@@ -9952,7 +10834,7 @@
       </c>
       <c r="M7" s="3">
         <f>[1]Assignments!M7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <v>0.4375</v>
@@ -10044,7 +10926,7 @@
       </c>
       <c r="AO7" s="3">
         <f>[1]Assignments!AO7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="4">
         <v>0.4375</v>
@@ -10074,7 +10956,7 @@
       </c>
       <c r="AY7" s="9">
         <f>[1]Assignments!AY7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="10">
         <f>[1]Assignments!AZ7</f>
@@ -10207,7 +11089,7 @@
       </c>
       <c r="AA8" s="3">
         <f>[1]Assignments!AA8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="4">
         <v>0.45833333333333298</v>
@@ -10253,7 +11135,7 @@
       </c>
       <c r="AO8" s="3">
         <f>[1]Assignments!AO8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="4">
         <v>0.45833333333333298</v>
@@ -10283,7 +11165,7 @@
       </c>
       <c r="AY8" s="9">
         <f>[1]Assignments!AY8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="10">
         <f>[1]Assignments!AZ8</f>
@@ -10306,7 +11188,7 @@
       </c>
       <c r="BF8" s="9">
         <f>[1]Assignments!BF8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="10">
         <f>[1]Assignments!BG8</f>
@@ -10416,7 +11298,7 @@
       </c>
       <c r="AA9" s="3">
         <f>[1]Assignments!AA9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="4">
         <v>0.47916666666666702</v>
@@ -10531,7 +11413,7 @@
       </c>
       <c r="BJ9" s="3">
         <f>[1]Assignments!BJ9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
@@ -10625,7 +11507,7 @@
       </c>
       <c r="AA10" s="3">
         <f>[1]Assignments!AA10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="4">
         <v>0.5</v>
@@ -10740,7 +11622,7 @@
       </c>
       <c r="BJ10" s="3">
         <f>[1]Assignments!BJ10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
@@ -11635,7 +12517,7 @@
       </c>
       <c r="Q15" s="10">
         <f>[1]Assignments!Q15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="10">
         <f>[1]Assignments!R15</f>
@@ -11681,7 +12563,7 @@
       </c>
       <c r="AE15" s="10">
         <f>[1]Assignments!AE15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="10">
         <f>[1]Assignments!AF15</f>
@@ -12285,7 +13167,7 @@
       </c>
       <c r="X18" s="10">
         <f>[1]Assignments!X18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="10">
         <f>[1]Assignments!Y18</f>
@@ -12377,7 +13259,7 @@
       </c>
       <c r="AZ18" s="10">
         <f>[1]Assignments!AZ18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="10">
         <f>[1]Assignments!BA18</f>
@@ -12483,7 +13365,7 @@
       </c>
       <c r="T19" s="3">
         <f>[1]Assignments!T19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="4">
         <v>0.6875</v>
@@ -12494,7 +13376,7 @@
       </c>
       <c r="X19" s="10">
         <f>[1]Assignments!X19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="10">
         <f>[1]Assignments!Y19</f>
@@ -12586,7 +13468,7 @@
       </c>
       <c r="AZ19" s="10">
         <f>[1]Assignments!AZ19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="10">
         <f>[1]Assignments!BA19</f>
@@ -12703,7 +13585,7 @@
       </c>
       <c r="X20" s="10">
         <f>[1]Assignments!X20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="10">
         <f>[1]Assignments!Y20</f>
@@ -12795,7 +13677,7 @@
       </c>
       <c r="AZ20" s="10">
         <f>[1]Assignments!AZ20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="10">
         <f>[1]Assignments!BA20</f>
@@ -12912,7 +13794,7 @@
       </c>
       <c r="X21" s="10">
         <f>[1]Assignments!X21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="10">
         <f>[1]Assignments!Y21</f>
@@ -13004,7 +13886,7 @@
       </c>
       <c r="AZ21" s="10">
         <f>[1]Assignments!AZ21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="10">
         <f>[1]Assignments!BA21</f>
@@ -13117,7 +13999,7 @@
       </c>
       <c r="W22" s="9">
         <f>[1]Assignments!W22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="10">
         <f>[1]Assignments!X22</f>
@@ -13251,211 +14133,211 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="14">
         <f>[1]Assignments!B23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="15">
         <f>[1]Assignments!C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="15">
         <f>[1]Assignments!D23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="15">
         <f>[1]Assignments!E23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="16">
         <f>[1]Assignments!F23</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="14">
         <f>[1]Assignments!I23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="15">
         <f>[1]Assignments!J23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="15">
         <f>[1]Assignments!K23</f>
         <v>0</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="15">
         <f>[1]Assignments!L23</f>
         <v>1</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="16">
         <f>[1]Assignments!M23</f>
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="14">
         <f>[1]Assignments!P23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="15">
         <f>[1]Assignments!Q23</f>
         <v>0</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="15">
         <f>[1]Assignments!R23</f>
         <v>0</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="15">
         <f>[1]Assignments!S23</f>
         <v>0</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="16">
         <f>[1]Assignments!T23</f>
         <v>0</v>
       </c>
       <c r="V23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="14">
         <f>[1]Assignments!W23</f>
         <v>0</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="15">
         <f>[1]Assignments!X23</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="15">
         <f>[1]Assignments!Y23</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="15">
         <f>[1]Assignments!Z23</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="16">
         <f>[1]Assignments!AA23</f>
         <v>0</v>
       </c>
       <c r="AC23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="14">
         <f>[1]Assignments!AD23</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="10">
+      <c r="AE23" s="15">
         <f>[1]Assignments!AE23</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="15">
         <f>[1]Assignments!AF23</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="10">
+      <c r="AG23" s="15">
         <f>[1]Assignments!AG23</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH23" s="16">
         <f>[1]Assignments!AH23</f>
         <v>1</v>
       </c>
       <c r="AJ23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AK23" s="9">
+      <c r="AK23" s="14">
         <f>[1]Assignments!AK23</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="10">
+      <c r="AL23" s="15">
         <f>[1]Assignments!AL23</f>
         <v>1</v>
       </c>
-      <c r="AM23" s="10">
+      <c r="AM23" s="15">
         <f>[1]Assignments!AM23</f>
         <v>0</v>
       </c>
-      <c r="AN23" s="10">
+      <c r="AN23" s="15">
         <f>[1]Assignments!AN23</f>
         <v>0</v>
       </c>
-      <c r="AO23" s="3">
+      <c r="AO23" s="16">
         <f>[1]Assignments!AO23</f>
         <v>0</v>
       </c>
       <c r="AQ23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AR23" s="9">
+      <c r="AR23" s="14">
         <f>[1]Assignments!AR23</f>
         <v>0</v>
       </c>
-      <c r="AS23" s="10">
+      <c r="AS23" s="15">
         <f>[1]Assignments!AS23</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="10">
+      <c r="AT23" s="15">
         <f>[1]Assignments!AT23</f>
         <v>0</v>
       </c>
-      <c r="AU23" s="10">
+      <c r="AU23" s="15">
         <f>[1]Assignments!AU23</f>
         <v>0</v>
       </c>
-      <c r="AV23" s="3">
+      <c r="AV23" s="16">
         <f>[1]Assignments!AV23</f>
         <v>0</v>
       </c>
       <c r="AX23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="AY23" s="9">
+      <c r="AY23" s="14">
         <f>[1]Assignments!AY23</f>
         <v>0</v>
       </c>
-      <c r="AZ23" s="10">
+      <c r="AZ23" s="15">
         <f>[1]Assignments!AZ23</f>
         <v>0</v>
       </c>
-      <c r="BA23" s="10">
+      <c r="BA23" s="15">
         <f>[1]Assignments!BA23</f>
         <v>1</v>
       </c>
-      <c r="BB23" s="10">
+      <c r="BB23" s="15">
         <f>[1]Assignments!BB23</f>
         <v>0</v>
       </c>
-      <c r="BC23" s="3">
+      <c r="BC23" s="16">
         <f>[1]Assignments!BC23</f>
         <v>0</v>
       </c>
       <c r="BE23" s="4">
         <v>0.77083333333333404</v>
       </c>
-      <c r="BF23" s="9">
+      <c r="BF23" s="14">
         <f>[1]Assignments!BF23</f>
         <v>1</v>
       </c>
-      <c r="BG23" s="10">
+      <c r="BG23" s="15">
         <f>[1]Assignments!BG23</f>
         <v>0</v>
       </c>
-      <c r="BH23" s="10">
+      <c r="BH23" s="15">
         <f>[1]Assignments!BH23</f>
         <v>0</v>
       </c>
-      <c r="BI23" s="10">
+      <c r="BI23" s="15">
         <f>[1]Assignments!BI23</f>
         <v>0</v>
       </c>
-      <c r="BJ23" s="3">
+      <c r="BJ23" s="16">
         <f>[1]Assignments!BJ23</f>
         <v>0</v>
       </c>
@@ -13561,7 +14443,7 @@
     <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:XFD1048576 A26 D26:XFD26 A1:XFD25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
